--- a/RoomAcoustics/modulo 1/5_design_room/rating.xlsx
+++ b/RoomAcoustics/modulo 1/5_design_room/rating.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\modulo 1\5_design_room\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3832D6-4648-4F3B-ADC4-D1B1B340C775}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="11175" windowHeight="4560" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="4" r:id="rId1"/>
@@ -12,12 +18,32 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="c_sound">RT!$C$36</definedName>
+    <definedName name="s_1">assorbimento!$J$37</definedName>
+    <definedName name="s_2">assorbimento!$K$37</definedName>
+    <definedName name="s_3">assorbimento!$L$37</definedName>
+    <definedName name="s_4">assorbimento!$M$37</definedName>
+    <definedName name="surf">RT!$C$32</definedName>
+    <definedName name="volume">RT!$C$4</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Frequency</t>
   </si>
@@ -430,16 +456,37 @@
       <t>w</t>
     </r>
   </si>
+  <si>
+    <t>0,90; 0,95; 1,00</t>
+  </si>
+  <si>
+    <t>0,80; 0,85</t>
+  </si>
+  <si>
+    <t>0.60; 0.65; 0.70; 0.75</t>
+  </si>
+  <si>
+    <t>0.30; 0.35; 0.40; 0.45; 0.50; 0.55</t>
+  </si>
+  <si>
+    <t>0.52; 0.20; 0.15;</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>range of each class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +592,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -572,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -989,6 +1041,32 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1005,7 +1083,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1060,9 +1138,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1183,8 +1258,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,13 +1304,19 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,12 +1324,2436 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reference curve</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>assorbimento!$R$7:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>assorbimento!$S$7:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CC9-497B-BADF-D52D6F8BCE92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1031271808"/>
+        <c:axId val="1031273056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1031271808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+          <c:min val="125"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1031273056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1031273056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1031271808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Repositioned reference</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> curve</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>panel 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>assorbimento!$I$40:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>assorbimento!$J$40:$J$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E17-432B-8BA9-9992D5E8097C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>panel 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>assorbimento!$I$40:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>assorbimento!$K$40:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E17-432B-8BA9-9992D5E8097C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>panel 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>assorbimento!$I$40:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>assorbimento!$L$40:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0E17-432B-8BA9-9992D5E8097C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>panel 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>assorbimento!$I$40:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>assorbimento!$M$40:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0E17-432B-8BA9-9992D5E8097C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1100214032"/>
+        <c:axId val="1100225264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1100214032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1100225264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1100225264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1100214032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347385</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>481855</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EEDF33-FCD2-498D-9B29-458CDA159010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313762</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>113180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>717174</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144557</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49790E21-2790-4847-840B-7AFF08725C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1292,7 +3795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1325,9 +3828,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1360,6 +3880,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1535,11 +4072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N55" sqref="N54:N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1548,1580 +4085,1948 @@
     <col min="7" max="7" width="9.125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="83"/>
+    <row r="1" spans="1:14" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="65" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="46"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="67">
         <f>C7*C8*C9</f>
         <v>260</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="69" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="71">
         <f>1.9*(C4)^(1/3)</f>
         <v>12.126758167833824</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="73" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="75">
+      <c r="C6" s="71"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="74">
         <v>100</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="73">
         <f>0.16*$C$4/($C$16*0.03)</f>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="71">
         <v>10</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="75">
+      <c r="D7" s="75"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="74">
         <v>125</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="73">
         <f t="shared" ref="G7:G10" si="0">0.16*$C$4/($C$16*0.03)</f>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="71">
         <v>6.5</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="75">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="74">
         <v>160</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="73">
         <f t="shared" si="0"/>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="71">
         <v>4</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="75">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="74">
         <v>200</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="73">
         <f t="shared" si="0"/>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="75">
+      <c r="A10" s="45"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="74">
         <v>250</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="73">
         <f t="shared" si="0"/>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="75">
+      <c r="C11" s="71"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="74">
         <v>315</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="73">
         <f>0.16*$C$4/($C$16*0.036)</f>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H11" s="46"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="71" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="71">
         <f>C8*C7</f>
         <v>65</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="75">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="74">
         <v>400</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="73">
         <f t="shared" ref="G12:G15" si="1">0.16*$C$4/($C$16*0.036)</f>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="45"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="71">
         <f>C12</f>
         <v>65</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="75">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="74">
         <v>500</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="73">
         <f t="shared" si="1"/>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="45"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="71">
         <f>(C7+C8)*C9*2</f>
         <v>132</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="75">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="74">
         <v>630</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="73">
         <f t="shared" si="1"/>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="71" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="75">
+      <c r="C15" s="71"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="74">
         <v>800</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="73">
         <f t="shared" si="1"/>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79">
+      <c r="A16" s="45"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78">
         <f>SUM(C12:C14)</f>
         <v>262</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="80">
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="79">
         <v>1000</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="73">
         <f>0.16*$C$4/($C$16*0.04)</f>
         <v>3.9694656488549618</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="80">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="79">
         <v>1250</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="73">
         <f t="shared" ref="G17" si="2">0.16*$C$4/($C$16*0.04)</f>
         <v>3.9694656488549618</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="80">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="79">
         <v>1600</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="73">
         <f>0.16*$C$4/($C$16*0.045)</f>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="80">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="79">
         <v>2000</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="73">
         <f t="shared" ref="G19:G23" si="3">0.16*$C$4/($C$16*0.045)</f>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="80">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="79">
         <v>2500</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="73">
         <f t="shared" si="3"/>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="80">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="79">
         <v>3150</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="73">
         <f t="shared" si="3"/>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H21" s="46"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="80">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="79">
         <v>4000</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="73">
         <f t="shared" si="3"/>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="81">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="80">
         <v>5000</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="73">
         <f t="shared" si="3"/>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H23" s="46"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="46"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="114" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114" t="s">
+      <c r="H28" s="111"/>
+      <c r="I28" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114" t="s">
+      <c r="J28" s="111"/>
+      <c r="K28" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114" t="s">
+      <c r="L28" s="111"/>
+      <c r="M28" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="114"/>
-      <c r="O28" s="37"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="36"/>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="48" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="115" t="s">
+      <c r="G29" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="112" t="s">
+      <c r="H29" s="113"/>
+      <c r="I29" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="113"/>
-      <c r="K29" s="112" t="s">
+      <c r="J29" s="110"/>
+      <c r="K29" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="113"/>
-      <c r="M29" s="112" t="s">
+      <c r="L29" s="110"/>
+      <c r="M29" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="113"/>
-      <c r="O29" s="37"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="36"/>
     </row>
     <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="49" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="G30" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="112" t="s">
+      <c r="H30" s="110"/>
+      <c r="I30" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="113"/>
-      <c r="K30" s="112" t="s">
+      <c r="J30" s="110"/>
+      <c r="K30" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="112" t="s">
+      <c r="L30" s="110"/>
+      <c r="M30" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="N30" s="113"/>
-      <c r="O30" s="37"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="36"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="50">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="49">
         <v>100</v>
       </c>
-      <c r="G31" s="112">
+      <c r="G31" s="109">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H31" s="113"/>
-      <c r="I31" s="112">
+      <c r="H31" s="110"/>
+      <c r="I31" s="109">
         <f>G31-G31*0.15</f>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J31" s="113"/>
-      <c r="K31" s="112">
+      <c r="J31" s="110"/>
+      <c r="K31" s="109">
         <f>G31-G31*0.12</f>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="112">
+      <c r="L31" s="110"/>
+      <c r="M31" s="109">
         <f>K31-K31*0.14</f>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N31" s="113"/>
-      <c r="O31" s="37"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="50">
+      <c r="C32" s="43">
+        <v>12</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="49">
         <v>125</v>
       </c>
-      <c r="G32" s="112">
+      <c r="G32" s="109">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H32" s="113"/>
-      <c r="I32" s="112">
+      <c r="H32" s="110"/>
+      <c r="I32" s="109">
         <f t="shared" ref="I32:I48" si="4">G32-G32*0.15</f>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J32" s="113"/>
-      <c r="K32" s="112">
+      <c r="J32" s="110"/>
+      <c r="K32" s="109">
         <f t="shared" ref="K32:K48" si="5">G32-G32*0.12</f>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L32" s="113"/>
-      <c r="M32" s="112">
+      <c r="L32" s="110"/>
+      <c r="M32" s="109">
         <f t="shared" ref="M32:M48" si="6">K32-K32*0.14</f>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N32" s="113"/>
-      <c r="O32" s="37"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="36"/>
     </row>
     <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="50">
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="49">
         <v>160</v>
       </c>
-      <c r="G33" s="112">
+      <c r="G33" s="109">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H33" s="113"/>
-      <c r="I33" s="112">
+      <c r="H33" s="110"/>
+      <c r="I33" s="109">
         <f t="shared" si="4"/>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J33" s="113"/>
-      <c r="K33" s="112">
+      <c r="J33" s="110"/>
+      <c r="K33" s="109">
         <f t="shared" si="5"/>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L33" s="113"/>
-      <c r="M33" s="112">
+      <c r="L33" s="110"/>
+      <c r="M33" s="109">
         <f t="shared" si="6"/>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N33" s="113"/>
-      <c r="O33" s="37"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
-      <c r="B34" s="44" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="50">
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="49">
         <v>200</v>
       </c>
-      <c r="G34" s="112">
+      <c r="G34" s="109">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H34" s="113"/>
-      <c r="I34" s="112">
+      <c r="H34" s="110"/>
+      <c r="I34" s="109">
         <f t="shared" si="4"/>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J34" s="113"/>
-      <c r="K34" s="112">
+      <c r="J34" s="110"/>
+      <c r="K34" s="109">
         <f t="shared" si="5"/>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L34" s="113"/>
-      <c r="M34" s="112">
+      <c r="L34" s="110"/>
+      <c r="M34" s="109">
         <f t="shared" si="6"/>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N34" s="113"/>
-      <c r="O34" s="37"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="36"/>
     </row>
     <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="50">
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="49">
         <v>250</v>
       </c>
-      <c r="G35" s="112">
+      <c r="G35" s="109">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="112">
+      <c r="H35" s="110"/>
+      <c r="I35" s="109">
         <f t="shared" si="4"/>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J35" s="113"/>
-      <c r="K35" s="112">
+      <c r="J35" s="110"/>
+      <c r="K35" s="109">
         <f t="shared" si="5"/>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L35" s="113"/>
-      <c r="M35" s="112">
+      <c r="L35" s="110"/>
+      <c r="M35" s="109">
         <f t="shared" si="6"/>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N35" s="113"/>
-      <c r="O35" s="37"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="36"/>
     </row>
     <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A36" s="37"/>
-      <c r="B36" s="44" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44" t="s">
+      <c r="C36" s="43">
+        <v>340</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="50">
+      <c r="E36" s="36"/>
+      <c r="F36" s="49">
         <v>315</v>
       </c>
-      <c r="G36" s="112">
+      <c r="G36" s="109">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H36" s="113"/>
-      <c r="I36" s="112">
+      <c r="H36" s="110"/>
+      <c r="I36" s="109">
         <f t="shared" si="4"/>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J36" s="113"/>
-      <c r="K36" s="112">
+      <c r="J36" s="110"/>
+      <c r="K36" s="109">
         <f t="shared" si="5"/>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L36" s="113"/>
-      <c r="M36" s="112">
+      <c r="L36" s="110"/>
+      <c r="M36" s="109">
         <f t="shared" si="6"/>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N36" s="113"/>
-      <c r="O36" s="37"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="36"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="50">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="49">
         <v>400</v>
       </c>
-      <c r="G37" s="112">
+      <c r="G37" s="109">
         <v>2.670303647158609</v>
       </c>
-      <c r="H37" s="113"/>
-      <c r="I37" s="112">
+      <c r="H37" s="110"/>
+      <c r="I37" s="109">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J37" s="113"/>
-      <c r="K37" s="112">
+      <c r="J37" s="110"/>
+      <c r="K37" s="109">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L37" s="113"/>
-      <c r="M37" s="112">
+      <c r="L37" s="110"/>
+      <c r="M37" s="109">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N37" s="113"/>
-      <c r="O37" s="37"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="36"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="50">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="49">
         <v>500</v>
       </c>
-      <c r="G38" s="112">
+      <c r="G38" s="109">
         <v>2.670303647158609</v>
       </c>
-      <c r="H38" s="113"/>
-      <c r="I38" s="112">
+      <c r="H38" s="110"/>
+      <c r="I38" s="109">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J38" s="113"/>
-      <c r="K38" s="112">
+      <c r="J38" s="110"/>
+      <c r="K38" s="109">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L38" s="113"/>
-      <c r="M38" s="112">
+      <c r="L38" s="110"/>
+      <c r="M38" s="109">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N38" s="113"/>
-      <c r="O38" s="37"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="36"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="50">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="49">
         <v>630</v>
       </c>
-      <c r="G39" s="112">
+      <c r="G39" s="109">
         <v>2.670303647158609</v>
       </c>
-      <c r="H39" s="113"/>
-      <c r="I39" s="112">
+      <c r="H39" s="110"/>
+      <c r="I39" s="109">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J39" s="113"/>
-      <c r="K39" s="112">
+      <c r="J39" s="110"/>
+      <c r="K39" s="109">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L39" s="113"/>
-      <c r="M39" s="112">
+      <c r="L39" s="110"/>
+      <c r="M39" s="109">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N39" s="113"/>
-      <c r="O39" s="37"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="36"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="50">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="49">
         <v>800</v>
       </c>
-      <c r="G40" s="112">
+      <c r="G40" s="109">
         <v>2.670303647158609</v>
       </c>
-      <c r="H40" s="113"/>
-      <c r="I40" s="112">
+      <c r="H40" s="110"/>
+      <c r="I40" s="109">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J40" s="113"/>
-      <c r="K40" s="112">
+      <c r="J40" s="110"/>
+      <c r="K40" s="109">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L40" s="113"/>
-      <c r="M40" s="112">
+      <c r="L40" s="110"/>
+      <c r="M40" s="109">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N40" s="113"/>
-      <c r="O40" s="37"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="36"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="51">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="50">
         <v>1000</v>
       </c>
-      <c r="G41" s="112">
+      <c r="G41" s="109">
         <v>2.670303647158609</v>
       </c>
-      <c r="H41" s="113"/>
-      <c r="I41" s="112">
+      <c r="H41" s="110"/>
+      <c r="I41" s="109">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J41" s="113"/>
-      <c r="K41" s="112">
+      <c r="J41" s="110"/>
+      <c r="K41" s="109">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L41" s="113"/>
-      <c r="M41" s="112">
+      <c r="L41" s="110"/>
+      <c r="M41" s="109">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N41" s="113"/>
-      <c r="O41" s="37"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="36"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="51">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="50">
         <v>1250</v>
       </c>
-      <c r="G42" s="112">
+      <c r="G42" s="109">
         <v>2.670303647158609</v>
       </c>
-      <c r="H42" s="113"/>
-      <c r="I42" s="112">
+      <c r="H42" s="110"/>
+      <c r="I42" s="109">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J42" s="113"/>
-      <c r="K42" s="112">
+      <c r="J42" s="110"/>
+      <c r="K42" s="109">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L42" s="113"/>
-      <c r="M42" s="112">
+      <c r="L42" s="110"/>
+      <c r="M42" s="109">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N42" s="113"/>
-      <c r="O42" s="37"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="36"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="51">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="50">
         <v>1600</v>
       </c>
-      <c r="G43" s="112">
+      <c r="G43" s="109">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H43" s="113"/>
-      <c r="I43" s="112">
+      <c r="H43" s="110"/>
+      <c r="I43" s="109">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J43" s="113"/>
-      <c r="K43" s="112">
+      <c r="J43" s="110"/>
+      <c r="K43" s="109">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L43" s="113"/>
-      <c r="M43" s="112">
+      <c r="L43" s="110"/>
+      <c r="M43" s="109">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N43" s="113"/>
-      <c r="O43" s="37"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="36"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="51">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="50">
         <v>2000</v>
       </c>
-      <c r="G44" s="112">
+      <c r="G44" s="109">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H44" s="113"/>
-      <c r="I44" s="112">
+      <c r="H44" s="110"/>
+      <c r="I44" s="109">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J44" s="113"/>
-      <c r="K44" s="112">
+      <c r="J44" s="110"/>
+      <c r="K44" s="109">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L44" s="113"/>
-      <c r="M44" s="112">
+      <c r="L44" s="110"/>
+      <c r="M44" s="109">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N44" s="113"/>
-      <c r="O44" s="37"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="36"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="51">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="50">
         <v>2500</v>
       </c>
-      <c r="G45" s="112">
+      <c r="G45" s="109">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H45" s="113"/>
-      <c r="I45" s="112">
+      <c r="H45" s="110"/>
+      <c r="I45" s="109">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J45" s="113"/>
-      <c r="K45" s="112">
+      <c r="J45" s="110"/>
+      <c r="K45" s="109">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L45" s="113"/>
-      <c r="M45" s="112">
+      <c r="L45" s="110"/>
+      <c r="M45" s="109">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N45" s="113"/>
-      <c r="O45" s="37"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="36"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="51">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="50">
         <v>3150</v>
       </c>
-      <c r="G46" s="112">
+      <c r="G46" s="109">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H46" s="113"/>
-      <c r="I46" s="112">
+      <c r="H46" s="110"/>
+      <c r="I46" s="109">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J46" s="113"/>
-      <c r="K46" s="112">
+      <c r="J46" s="110"/>
+      <c r="K46" s="109">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L46" s="113"/>
-      <c r="M46" s="112">
+      <c r="L46" s="110"/>
+      <c r="M46" s="109">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N46" s="113"/>
-      <c r="O46" s="37"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="36"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="51">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="50">
         <v>4000</v>
       </c>
-      <c r="G47" s="112">
+      <c r="G47" s="109">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H47" s="113"/>
-      <c r="I47" s="112">
+      <c r="H47" s="110"/>
+      <c r="I47" s="109">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J47" s="113"/>
-      <c r="K47" s="112">
+      <c r="J47" s="110"/>
+      <c r="K47" s="109">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L47" s="113"/>
-      <c r="M47" s="112">
+      <c r="L47" s="110"/>
+      <c r="M47" s="109">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N47" s="113"/>
-      <c r="O47" s="37"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="36"/>
     </row>
     <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="52">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="51">
         <v>5000</v>
       </c>
-      <c r="G48" s="112">
+      <c r="G48" s="109">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H48" s="113"/>
-      <c r="I48" s="112">
+      <c r="H48" s="110"/>
+      <c r="I48" s="109">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J48" s="113"/>
-      <c r="K48" s="112">
+      <c r="J48" s="110"/>
+      <c r="K48" s="109">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L48" s="113"/>
-      <c r="M48" s="112">
+      <c r="L48" s="110"/>
+      <c r="M48" s="109">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N48" s="113"/>
-      <c r="O48" s="37"/>
+      <c r="N48" s="110"/>
+      <c r="O48" s="36"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="58" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G52" s="59"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="40"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="39"/>
     </row>
     <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="60" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="61" t="s">
+      <c r="G53" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="61" t="s">
+      <c r="H53" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="I53" s="61" t="s">
+      <c r="I53" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="J53" s="61" t="s">
+      <c r="J53" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K53" s="61" t="s">
+      <c r="K53" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="L53" s="61" t="s">
+      <c r="L53" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="M53" s="61" t="s">
+      <c r="M53" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="N53" s="61" t="s">
+      <c r="N53" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="O53" s="40"/>
+      <c r="O53" s="39"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="62">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="61">
         <v>100</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="40"/>
+      <c r="G54" s="62">
+        <f>55.3*volume*(1/(c_sound*G31) - 1/(c_sound*G6))</f>
+        <v>6.7906866372341765</v>
+      </c>
+      <c r="H54" s="62">
+        <f>G54/surf</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="I54" s="62">
+        <f>55.3*volume*(1/(c_sound*I31) - 1/(c_sound*G6))</f>
+        <v>9.399049590517718</v>
+      </c>
+      <c r="J54" s="62">
+        <f>I54/surf</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="K54" s="62">
+        <f>55.3*volume*(1/(c_sound*K31) - 1/(c_sound*G6))</f>
+        <v>8.8062398284078185</v>
+      </c>
+      <c r="L54" s="62">
+        <f>K54/surf</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="M54" s="62">
+        <f>55.3*volume*(1/(c_sound*M31) - 1/(c_sound*G6))</f>
+        <v>11.540517413333307</v>
+      </c>
+      <c r="N54" s="62">
+        <f>M54/surf</f>
+        <v>0.96170978444444222</v>
+      </c>
+      <c r="O54" s="39"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="62">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="61">
         <v>125</v>
       </c>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="40"/>
+      <c r="G55" s="62">
+        <f>55.3*volume*(1/(c_sound*G32) - 1/(c_sound*G7))</f>
+        <v>6.7906866372341765</v>
+      </c>
+      <c r="H55" s="62">
+        <f>G55/surf</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="I55" s="62">
+        <f>55.3*volume*(1/(c_sound*I32) - 1/(c_sound*G7))</f>
+        <v>9.399049590517718</v>
+      </c>
+      <c r="J55" s="62">
+        <f>I55/surf</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="K55" s="62">
+        <f>55.3*volume*(1/(c_sound*K32) - 1/(c_sound*G7))</f>
+        <v>8.8062398284078185</v>
+      </c>
+      <c r="L55" s="62">
+        <f>K55/surf</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="M55" s="62">
+        <f>55.3*volume*(1/(c_sound*M32) - 1/(c_sound*G7))</f>
+        <v>11.540517413333307</v>
+      </c>
+      <c r="N55" s="62">
+        <f>M55/surf</f>
+        <v>0.96170978444444222</v>
+      </c>
+      <c r="O55" s="39"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="62">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="61">
         <v>160</v>
       </c>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="40"/>
+      <c r="G56" s="62">
+        <f>55.3*volume*(1/(c_sound*G33) - 1/(c_sound*G8))</f>
+        <v>6.7906866372341765</v>
+      </c>
+      <c r="H56" s="62">
+        <f>G56/surf</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="I56" s="62">
+        <f>55.3*volume*(1/(c_sound*I33) - 1/(c_sound*G8))</f>
+        <v>9.399049590517718</v>
+      </c>
+      <c r="J56" s="62">
+        <f>I56/surf</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="K56" s="62">
+        <f>55.3*volume*(1/(c_sound*K33) - 1/(c_sound*G8))</f>
+        <v>8.8062398284078185</v>
+      </c>
+      <c r="L56" s="62">
+        <f>K56/surf</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="M56" s="62">
+        <f>55.3*volume*(1/(c_sound*M33) - 1/(c_sound*G8))</f>
+        <v>11.540517413333307</v>
+      </c>
+      <c r="N56" s="62">
+        <f>M56/surf</f>
+        <v>0.96170978444444222</v>
+      </c>
+      <c r="O56" s="39"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="62">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="61">
         <v>200</v>
       </c>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="40"/>
+      <c r="G57" s="62">
+        <f>55.3*volume*(1/(c_sound*G34) - 1/(c_sound*G9))</f>
+        <v>6.7906866372341765</v>
+      </c>
+      <c r="H57" s="62">
+        <f>G57/surf</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="I57" s="62">
+        <f>55.3*volume*(1/(c_sound*I34) - 1/(c_sound*G9))</f>
+        <v>9.399049590517718</v>
+      </c>
+      <c r="J57" s="62">
+        <f>I57/surf</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="K57" s="62">
+        <f>55.3*volume*(1/(c_sound*K34) - 1/(c_sound*G9))</f>
+        <v>8.8062398284078185</v>
+      </c>
+      <c r="L57" s="62">
+        <f>K57/surf</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="M57" s="62">
+        <f>55.3*volume*(1/(c_sound*M34) - 1/(c_sound*G9))</f>
+        <v>11.540517413333307</v>
+      </c>
+      <c r="N57" s="62">
+        <f>M57/surf</f>
+        <v>0.96170978444444222</v>
+      </c>
+      <c r="O57" s="39"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="62">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="61">
         <v>250</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="40"/>
+      <c r="G58" s="62">
+        <f>55.3*volume*(1/(c_sound*G35) - 1/(c_sound*G10))</f>
+        <v>6.7906866372341765</v>
+      </c>
+      <c r="H58" s="62">
+        <f>G58/surf</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="I58" s="62">
+        <f>55.3*volume*(1/(c_sound*I35) - 1/(c_sound*G10))</f>
+        <v>9.399049590517718</v>
+      </c>
+      <c r="J58" s="62">
+        <f>I58/surf</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="K58" s="62">
+        <f>55.3*volume*(1/(c_sound*K35) - 1/(c_sound*G10))</f>
+        <v>8.8062398284078185</v>
+      </c>
+      <c r="L58" s="62">
+        <f>K58/surf</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="M58" s="62">
+        <f>55.3*volume*(1/(c_sound*M35) - 1/(c_sound*G10))</f>
+        <v>11.540517413333307</v>
+      </c>
+      <c r="N58" s="62">
+        <f>M58/surf</f>
+        <v>0.96170978444444222</v>
+      </c>
+      <c r="O58" s="39"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="62">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="61">
         <v>315</v>
       </c>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="40"/>
+      <c r="G59" s="62">
+        <f>55.3*volume*(1/(c_sound*G36) - 1/(c_sound*G11))</f>
+        <v>5.1926792842930034</v>
+      </c>
+      <c r="H59" s="62">
+        <f>G59/surf</f>
+        <v>0.4327232736910836</v>
+      </c>
+      <c r="I59" s="62">
+        <f>55.3*volume*(1/(c_sound*I36) - 1/(c_sound*G11))</f>
+        <v>7.8010422375765449</v>
+      </c>
+      <c r="J59" s="62">
+        <f>I59/surf</f>
+        <v>0.65008685313137871</v>
+      </c>
+      <c r="K59" s="62">
+        <f>55.3*volume*(1/(c_sound*K36) - 1/(c_sound*G11))</f>
+        <v>7.2082324754666462</v>
+      </c>
+      <c r="L59" s="62">
+        <f>K59/surf</f>
+        <v>0.60068603962222056</v>
+      </c>
+      <c r="M59" s="62">
+        <f>55.3*volume*(1/(c_sound*M36) - 1/(c_sound*G11))</f>
+        <v>9.9425100603921344</v>
+      </c>
+      <c r="N59" s="62">
+        <f>M59/surf</f>
+        <v>0.8285425050326779</v>
+      </c>
+      <c r="O59" s="39"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="62">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="61">
         <v>400</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="40"/>
+      <c r="G60" s="62">
+        <f>55.3*volume*(1/(c_sound*G37) - 1/(c_sound*G12))</f>
+        <v>6.2484452415744327</v>
+      </c>
+      <c r="H60" s="62">
+        <f>G60/surf</f>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="I60" s="62">
+        <f>55.3*volume*(1/(c_sound*I37) - 1/(c_sound*G12))</f>
+        <v>9.043119834378226</v>
+      </c>
+      <c r="J60" s="62">
+        <f>I60/surf</f>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="K60" s="62">
+        <f>55.3*volume*(1/(c_sound*K37) - 1/(c_sound*G12))</f>
+        <v>8.407966517831909</v>
+      </c>
+      <c r="L60" s="62">
+        <f>K60/surf</f>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="M60" s="62">
+        <f>55.3*volume*(1/(c_sound*M37) - 1/(c_sound*G12))</f>
+        <v>11.337549644537791</v>
+      </c>
+      <c r="N60" s="62">
+        <f>M60/surf</f>
+        <v>0.94479580371148264</v>
+      </c>
+      <c r="O60" s="39"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="62">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="61">
         <v>500</v>
       </c>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="40"/>
+      <c r="G61" s="62">
+        <f>55.3*volume*(1/(c_sound*G38) - 1/(c_sound*G13))</f>
+        <v>6.2484452415744327</v>
+      </c>
+      <c r="H61" s="62">
+        <f>G61/surf</f>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="I61" s="62">
+        <f>55.3*volume*(1/(c_sound*I38) - 1/(c_sound*G13))</f>
+        <v>9.043119834378226</v>
+      </c>
+      <c r="J61" s="62">
+        <f>I61/surf</f>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="K61" s="62">
+        <f>55.3*volume*(1/(c_sound*K38) - 1/(c_sound*G13))</f>
+        <v>8.407966517831909</v>
+      </c>
+      <c r="L61" s="62">
+        <f>K61/surf</f>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="M61" s="62">
+        <f>55.3*volume*(1/(c_sound*M38) - 1/(c_sound*G13))</f>
+        <v>11.337549644537791</v>
+      </c>
+      <c r="N61" s="62">
+        <f>M61/surf</f>
+        <v>0.94479580371148264</v>
+      </c>
+      <c r="O61" s="39"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="62">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="61">
         <v>630</v>
       </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="40"/>
+      <c r="G62" s="62">
+        <f>55.3*volume*(1/(c_sound*G39) - 1/(c_sound*G14))</f>
+        <v>6.2484452415744327</v>
+      </c>
+      <c r="H62" s="62">
+        <f>G62/surf</f>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="I62" s="62">
+        <f>55.3*volume*(1/(c_sound*I39) - 1/(c_sound*G14))</f>
+        <v>9.043119834378226</v>
+      </c>
+      <c r="J62" s="62">
+        <f>I62/surf</f>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="K62" s="62">
+        <f>55.3*volume*(1/(c_sound*K39) - 1/(c_sound*G14))</f>
+        <v>8.407966517831909</v>
+      </c>
+      <c r="L62" s="62">
+        <f>K62/surf</f>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="M62" s="62">
+        <f>55.3*volume*(1/(c_sound*M39) - 1/(c_sound*G14))</f>
+        <v>11.337549644537791</v>
+      </c>
+      <c r="N62" s="62">
+        <f>M62/surf</f>
+        <v>0.94479580371148264</v>
+      </c>
+      <c r="O62" s="39"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="62">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="61">
         <v>800</v>
       </c>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="40"/>
+      <c r="G63" s="62">
+        <f>55.3*volume*(1/(c_sound*G40) - 1/(c_sound*G15))</f>
+        <v>6.2484452415744327</v>
+      </c>
+      <c r="H63" s="62">
+        <f>G63/surf</f>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="I63" s="62">
+        <f>55.3*volume*(1/(c_sound*I40) - 1/(c_sound*G15))</f>
+        <v>9.043119834378226</v>
+      </c>
+      <c r="J63" s="62">
+        <f>I63/surf</f>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="K63" s="62">
+        <f>55.3*volume*(1/(c_sound*K40) - 1/(c_sound*G15))</f>
+        <v>8.407966517831909</v>
+      </c>
+      <c r="L63" s="62">
+        <f>K63/surf</f>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="M63" s="62">
+        <f>55.3*volume*(1/(c_sound*M40) - 1/(c_sound*G15))</f>
+        <v>11.337549644537791</v>
+      </c>
+      <c r="N63" s="62">
+        <f>M63/surf</f>
+        <v>0.94479580371148264</v>
+      </c>
+      <c r="O63" s="39"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="64">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="63">
         <v>1000</v>
       </c>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="40"/>
+      <c r="G64" s="62">
+        <f>55.3*volume*(1/(c_sound*G41) - 1/(c_sound*G16))</f>
+        <v>5.183107006280312</v>
+      </c>
+      <c r="H64" s="62">
+        <f>G64/surf</f>
+        <v>0.43192558385669266</v>
+      </c>
+      <c r="I64" s="62">
+        <f>55.3*volume*(1/(c_sound*I41) - 1/(c_sound*G16))</f>
+        <v>7.9777815990841052</v>
+      </c>
+      <c r="J64" s="62">
+        <f>I64/surf</f>
+        <v>0.66481513325700881</v>
+      </c>
+      <c r="K64" s="62">
+        <f>55.3*volume*(1/(c_sound*K41) - 1/(c_sound*G16))</f>
+        <v>7.3426282825377882</v>
+      </c>
+      <c r="L64" s="62">
+        <f>K64/surf</f>
+        <v>0.61188569021148231</v>
+      </c>
+      <c r="M64" s="62">
+        <f>55.3*volume*(1/(c_sound*M41) - 1/(c_sound*G16))</f>
+        <v>10.27221140924367</v>
+      </c>
+      <c r="N64" s="62">
+        <f>M64/surf</f>
+        <v>0.85601761743697258</v>
+      </c>
+      <c r="O64" s="39"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="64">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="63">
         <v>1250</v>
       </c>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="40"/>
+      <c r="G65" s="62">
+        <f>55.3*volume*(1/(c_sound*G42) - 1/(c_sound*G17))</f>
+        <v>5.183107006280312</v>
+      </c>
+      <c r="H65" s="62">
+        <f>G65/surf</f>
+        <v>0.43192558385669266</v>
+      </c>
+      <c r="I65" s="62">
+        <f>55.3*volume*(1/(c_sound*I42) - 1/(c_sound*G17))</f>
+        <v>7.9777815990841052</v>
+      </c>
+      <c r="J65" s="62">
+        <f>I65/surf</f>
+        <v>0.66481513325700881</v>
+      </c>
+      <c r="K65" s="62">
+        <f>55.3*volume*(1/(c_sound*K42) - 1/(c_sound*G17))</f>
+        <v>7.3426282825377882</v>
+      </c>
+      <c r="L65" s="62">
+        <f>K65/surf</f>
+        <v>0.61188569021148231</v>
+      </c>
+      <c r="M65" s="62">
+        <f>55.3*volume*(1/(c_sound*M42) - 1/(c_sound*G17))</f>
+        <v>10.27221140924367</v>
+      </c>
+      <c r="N65" s="62">
+        <f>M65/surf</f>
+        <v>0.85601761743697258</v>
+      </c>
+      <c r="O65" s="39"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="64">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="63">
         <v>1600</v>
       </c>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="63"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="40"/>
+      <c r="G66" s="62">
+        <f>55.3*volume*(1/(c_sound*G43) - 1/(c_sound*G18))</f>
+        <v>5.6110441409650553</v>
+      </c>
+      <c r="H66" s="62">
+        <f>G66/surf</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="I66" s="62">
+        <f>55.3*volume*(1/(c_sound*I43) - 1/(c_sound*G18))</f>
+        <v>8.71623813296927</v>
+      </c>
+      <c r="J66" s="62">
+        <f>I66/surf</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="K66" s="62">
+        <f>55.3*volume*(1/(c_sound*K43) - 1/(c_sound*G18))</f>
+        <v>8.0105122256955852</v>
+      </c>
+      <c r="L66" s="62">
+        <f>K66/surf</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="M66" s="62">
+        <f>55.3*volume*(1/(c_sound*M43) - 1/(c_sound*G18))</f>
+        <v>11.265604588702121</v>
+      </c>
+      <c r="N66" s="62">
+        <f>M66/surf</f>
+        <v>0.93880038239184349</v>
+      </c>
+      <c r="O66" s="39"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="64">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="63">
         <v>2000</v>
       </c>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="40"/>
+      <c r="G67" s="62">
+        <f>55.3*volume*(1/(c_sound*G44) - 1/(c_sound*G19))</f>
+        <v>5.6110441409650553</v>
+      </c>
+      <c r="H67" s="62">
+        <f>G67/surf</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="I67" s="62">
+        <f>55.3*volume*(1/(c_sound*I44) - 1/(c_sound*G19))</f>
+        <v>8.71623813296927</v>
+      </c>
+      <c r="J67" s="62">
+        <f>I67/surf</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="K67" s="62">
+        <f>55.3*volume*(1/(c_sound*K44) - 1/(c_sound*G19))</f>
+        <v>8.0105122256955852</v>
+      </c>
+      <c r="L67" s="62">
+        <f>K67/surf</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="M67" s="62">
+        <f>55.3*volume*(1/(c_sound*M44) - 1/(c_sound*G19))</f>
+        <v>11.265604588702121</v>
+      </c>
+      <c r="N67" s="62">
+        <f>M67/surf</f>
+        <v>0.93880038239184349</v>
+      </c>
+      <c r="O67" s="39"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="64">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="63">
         <v>2500</v>
       </c>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="40"/>
+      <c r="G68" s="62">
+        <f>55.3*volume*(1/(c_sound*G45) - 1/(c_sound*G20))</f>
+        <v>5.6110441409650553</v>
+      </c>
+      <c r="H68" s="62">
+        <f>G68/surf</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="I68" s="62">
+        <f>55.3*volume*(1/(c_sound*I45) - 1/(c_sound*G20))</f>
+        <v>8.71623813296927</v>
+      </c>
+      <c r="J68" s="62">
+        <f>I68/surf</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="K68" s="62">
+        <f>55.3*volume*(1/(c_sound*K45) - 1/(c_sound*G20))</f>
+        <v>8.0105122256955852</v>
+      </c>
+      <c r="L68" s="62">
+        <f>K68/surf</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="M68" s="62">
+        <f>55.3*volume*(1/(c_sound*M45) - 1/(c_sound*G20))</f>
+        <v>11.265604588702121</v>
+      </c>
+      <c r="N68" s="62">
+        <f>M68/surf</f>
+        <v>0.93880038239184349</v>
+      </c>
+      <c r="O68" s="39"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="64">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="63">
         <v>3150</v>
       </c>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="40"/>
+      <c r="G69" s="62">
+        <f>55.3*volume*(1/(c_sound*G46) - 1/(c_sound*G21))</f>
+        <v>5.6110441409650553</v>
+      </c>
+      <c r="H69" s="62">
+        <f>G69/surf</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="I69" s="62">
+        <f>55.3*volume*(1/(c_sound*I46) - 1/(c_sound*G21))</f>
+        <v>8.71623813296927</v>
+      </c>
+      <c r="J69" s="62">
+        <f>I69/surf</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="K69" s="62">
+        <f>55.3*volume*(1/(c_sound*K46) - 1/(c_sound*G21))</f>
+        <v>8.0105122256955852</v>
+      </c>
+      <c r="L69" s="62">
+        <f>K69/surf</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="M69" s="62">
+        <f>55.3*volume*(1/(c_sound*M46) - 1/(c_sound*G21))</f>
+        <v>11.265604588702121</v>
+      </c>
+      <c r="N69" s="62">
+        <f>M69/surf</f>
+        <v>0.93880038239184349</v>
+      </c>
+      <c r="O69" s="39"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="64">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="63">
         <v>4000</v>
       </c>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="40"/>
+      <c r="G70" s="62">
+        <f>55.3*volume*(1/(c_sound*G47) - 1/(c_sound*G22))</f>
+        <v>5.6110441409650553</v>
+      </c>
+      <c r="H70" s="62">
+        <f>G70/surf</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="I70" s="62">
+        <f>55.3*volume*(1/(c_sound*I47) - 1/(c_sound*G22))</f>
+        <v>8.71623813296927</v>
+      </c>
+      <c r="J70" s="62">
+        <f>I70/surf</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="K70" s="62">
+        <f>55.3*volume*(1/(c_sound*K47) - 1/(c_sound*G22))</f>
+        <v>8.0105122256955852</v>
+      </c>
+      <c r="L70" s="62">
+        <f>K70/surf</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="M70" s="62">
+        <f>55.3*volume*(1/(c_sound*M47) - 1/(c_sound*G22))</f>
+        <v>11.265604588702121</v>
+      </c>
+      <c r="N70" s="62">
+        <f>M70/surf</f>
+        <v>0.93880038239184349</v>
+      </c>
+      <c r="O70" s="39"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="64">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="63">
         <v>5000</v>
       </c>
-      <c r="G71" s="63"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="40"/>
+      <c r="G71" s="62">
+        <f>55.3*volume*(1/(c_sound*G48) - 1/(c_sound*G23))</f>
+        <v>5.6110441409650553</v>
+      </c>
+      <c r="H71" s="62">
+        <f>G71/surf</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="I71" s="62">
+        <f>55.3*volume*(1/(c_sound*I48) - 1/(c_sound*G23))</f>
+        <v>8.71623813296927</v>
+      </c>
+      <c r="J71" s="62">
+        <f>I71/surf</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="K71" s="62">
+        <f>55.3*volume*(1/(c_sound*K48) - 1/(c_sound*G23))</f>
+        <v>8.0105122256955852</v>
+      </c>
+      <c r="L71" s="62">
+        <f>K71/surf</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="M71" s="62">
+        <f>55.3*volume*(1/(c_sound*M48) - 1/(c_sound*G23))</f>
+        <v>11.265604588702121</v>
+      </c>
+      <c r="N71" s="62">
+        <f>M71/surf</f>
+        <v>0.93880038239184349</v>
+      </c>
+      <c r="O71" s="39"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
@@ -3138,6 +6043,74 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3145,11 +6118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3167,6 +6140,9 @@
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K3" s="117" t="s">
+        <v>61</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3176,10 +6152,13 @@
     </row>
     <row r="4" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="83" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3203,7 +6182,9 @@
       <c r="M6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
       <c r="R6" s="15" t="s">
@@ -3214,258 +6195,518 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="95" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="116">
+        <f>J45</f>
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="114" t="s">
+        <v>12</v>
+      </c>
       <c r="M7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="R7" s="17">
         <v>125</v>
       </c>
-      <c r="S7" s="19"/>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="95">
+      <c r="B8" s="92">
         <v>100</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="96"/>
+      <c r="C8" s="91">
+        <f>RT!H54</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="D8" s="91">
+        <f>RT!J54</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="E8" s="91">
+        <f>RT!L54</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="F8" s="93">
+        <f>RT!N54</f>
+        <v>0.96170978444444222</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="116">
+        <f>K45</f>
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>11</v>
+      </c>
       <c r="M8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="5"/>
       <c r="R8" s="17">
         <v>250</v>
       </c>
-      <c r="S8" s="19"/>
+      <c r="S8" s="19">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="9" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>125</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="93"/>
+      <c r="C9" s="91">
+        <f>RT!H55</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="D9" s="91">
+        <f>RT!J55</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="E9" s="91">
+        <f>RT!L55</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="F9" s="93">
+        <f>RT!N55</f>
+        <v>0.96170978444444222</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="116">
+        <f>L45</f>
+        <v>0.7</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>11</v>
+      </c>
       <c r="M9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="R9" s="17">
         <v>500</v>
       </c>
-      <c r="S9" s="19"/>
+      <c r="S9" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>160</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="93"/>
+      <c r="C10" s="91">
+        <f>RT!H56</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="D10" s="91">
+        <f>RT!J56</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="E10" s="91">
+        <f>RT!L56</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="F10" s="93">
+        <f>RT!N56</f>
+        <v>0.96170978444444222</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="115">
+        <f>M45</f>
+        <v>0.95</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>9</v>
+      </c>
       <c r="M10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14"/>
+      <c r="N10" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="O10" s="14"/>
       <c r="P10" s="7"/>
       <c r="R10" s="17">
         <v>1000</v>
       </c>
-      <c r="S10" s="19"/>
+      <c r="S10" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>200</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="93"/>
+      <c r="C11" s="91">
+        <f>RT!H57</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="D11" s="91">
+        <f>RT!J57</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="E11" s="91">
+        <f>RT!L57</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="F11" s="93">
+        <f>RT!N57</f>
+        <v>0.96170978444444222</v>
+      </c>
       <c r="R11" s="17">
         <v>2000</v>
       </c>
-      <c r="S11" s="19"/>
+      <c r="S11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>250</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="93"/>
+      <c r="C12" s="91">
+        <f>RT!H58</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="D12" s="91">
+        <f>RT!J58</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="E12" s="91">
+        <f>RT!L58</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="F12" s="93">
+        <f>RT!N58</f>
+        <v>0.96170978444444222</v>
+      </c>
       <c r="R12" s="18">
         <v>4000</v>
       </c>
-      <c r="S12" s="20"/>
+      <c r="S12" s="20">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>315</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="93"/>
+      <c r="C13" s="91">
+        <f>RT!H59</f>
+        <v>0.4327232736910836</v>
+      </c>
+      <c r="D13" s="91">
+        <f>RT!J59</f>
+        <v>0.65008685313137871</v>
+      </c>
+      <c r="E13" s="91">
+        <f>RT!L59</f>
+        <v>0.60068603962222056</v>
+      </c>
+      <c r="F13" s="93">
+        <f>RT!N59</f>
+        <v>0.8285425050326779</v>
+      </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>400</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="93"/>
+      <c r="C14" s="91">
+        <f>RT!H60</f>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="D14" s="91">
+        <f>RT!J60</f>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="E14" s="91">
+        <f>RT!L60</f>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="F14" s="93">
+        <f>RT!N60</f>
+        <v>0.94479580371148264</v>
+      </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>500</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="93"/>
+      <c r="C15" s="91">
+        <f>RT!H61</f>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="D15" s="91">
+        <f>RT!J61</f>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="E15" s="91">
+        <f>RT!L61</f>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="F15" s="93">
+        <f>RT!N61</f>
+        <v>0.94479580371148264</v>
+      </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>630</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="93"/>
+      <c r="C16" s="91">
+        <f>RT!H62</f>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="D16" s="91">
+        <f>RT!J62</f>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="E16" s="91">
+        <f>RT!L62</f>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="F16" s="93">
+        <f>RT!N62</f>
+        <v>0.94479580371148264</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>800</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="93"/>
+      <c r="C17" s="91">
+        <f>RT!H63</f>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="D17" s="91">
+        <f>RT!J63</f>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="E17" s="91">
+        <f>RT!L63</f>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="F17" s="93">
+        <f>RT!N63</f>
+        <v>0.94479580371148264</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>1000</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="93"/>
+      <c r="C18" s="91">
+        <f>RT!H64</f>
+        <v>0.43192558385669266</v>
+      </c>
+      <c r="D18" s="91">
+        <f>RT!J64</f>
+        <v>0.66481513325700881</v>
+      </c>
+      <c r="E18" s="91">
+        <f>RT!L64</f>
+        <v>0.61188569021148231</v>
+      </c>
+      <c r="F18" s="93">
+        <f>RT!N64</f>
+        <v>0.85601761743697258</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>1250</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="93"/>
+      <c r="C19" s="91">
+        <f>RT!H65</f>
+        <v>0.43192558385669266</v>
+      </c>
+      <c r="D19" s="91">
+        <f>RT!J65</f>
+        <v>0.66481513325700881</v>
+      </c>
+      <c r="E19" s="91">
+        <f>RT!L65</f>
+        <v>0.61188569021148231</v>
+      </c>
+      <c r="F19" s="93">
+        <f>RT!N65</f>
+        <v>0.85601761743697258</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <v>1600</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="93"/>
+      <c r="C20" s="91">
+        <f>RT!H66</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D20" s="91">
+        <f>RT!J66</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E20" s="91">
+        <f>RT!L66</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F20" s="93">
+        <f>RT!N66</f>
+        <v>0.93880038239184349</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>2000</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="93"/>
+      <c r="C21" s="91">
+        <f>RT!H67</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D21" s="91">
+        <f>RT!J67</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E21" s="91">
+        <f>RT!L67</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F21" s="93">
+        <f>RT!N67</f>
+        <v>0.93880038239184349</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <v>2500</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="93"/>
+      <c r="C22" s="91">
+        <f>RT!H68</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D22" s="91">
+        <f>RT!J68</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E22" s="91">
+        <f>RT!L68</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F22" s="93">
+        <f>RT!N68</f>
+        <v>0.93880038239184349</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <v>3150</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="93"/>
+      <c r="C23" s="91">
+        <f>RT!H69</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D23" s="91">
+        <f>RT!J69</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E23" s="91">
+        <f>RT!L69</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F23" s="93">
+        <f>RT!N69</f>
+        <v>0.93880038239184349</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="34">
+      <c r="B24" s="33">
         <v>4000</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="93"/>
+      <c r="C24" s="91">
+        <f>RT!H70</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D24" s="91">
+        <f>RT!J70</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E24" s="91">
+        <f>RT!L70</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F24" s="93">
+        <f>RT!N70</f>
+        <v>0.93880038239184349</v>
+      </c>
     </row>
     <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="35">
+      <c r="B25" s="34">
         <v>5000</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="94"/>
+      <c r="C25" s="91">
+        <f>RT!H71</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D25" s="91">
+        <f>RT!J71</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E25" s="91">
+        <f>RT!L71</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F25" s="93">
+        <f>RT!N71</f>
+        <v>0.93880038239184349</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="29"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="83" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -3497,142 +6738,298 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="86" t="s">
+      <c r="E29" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="86" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="22">
         <v>125</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
+      <c r="J29" s="56">
+        <f>C31</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="K29" s="56">
+        <f>D31</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="L29" s="56">
+        <f t="shared" ref="L29:M29" si="0">E31</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="M29" s="56">
+        <f t="shared" si="0"/>
+        <v>0.96170978444444222</v>
+      </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="88">
+      <c r="B30" s="87">
         <v>100</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="89"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="88"/>
       <c r="F30" s="11"/>
       <c r="I30" s="2">
         <v>250</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
+      <c r="J30" s="52">
+        <f>C34</f>
+        <v>0.52150145996559327</v>
+      </c>
+      <c r="K30" s="52">
+        <f t="shared" ref="K30:M30" si="1">D34</f>
+        <v>0.73886503940588832</v>
+      </c>
+      <c r="L30" s="52">
+        <f t="shared" si="1"/>
+        <v>0.68946422589673018</v>
+      </c>
+      <c r="M30" s="52">
+        <f t="shared" si="1"/>
+        <v>0.91732069130718752</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>125</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
+      <c r="C31" s="31">
+        <f>(C8+C9+C10)/3</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="D31" s="31">
+        <f>(D8+D9+D10)/3</f>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" ref="E31:F31" si="2">(E8+E9+E10)/3</f>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="F31" s="31">
+        <f t="shared" si="2"/>
+        <v>0.96170978444444222</v>
+      </c>
       <c r="I31" s="2">
         <v>500</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
+      <c r="J31" s="52">
+        <f>C37</f>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="K31" s="52">
+        <f t="shared" ref="K31:L31" si="3">D37</f>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="L31" s="52">
+        <f t="shared" si="3"/>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="M31" s="52">
+        <f>F37</f>
+        <v>0.94479580371148264</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>160</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="31">
+        <f t="shared" ref="C32:F46" si="4">(C9+C10+C11)/3</f>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="D32" s="31">
+        <f t="shared" si="4"/>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="E32" s="31">
+        <f t="shared" si="4"/>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="F32" s="31">
+        <f t="shared" si="4"/>
+        <v>0.96170978444444222</v>
+      </c>
       <c r="I32" s="2">
         <v>1000</v>
       </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
+      <c r="J32" s="52">
+        <f>C40</f>
+        <v>0.4615183126148627</v>
+      </c>
+      <c r="K32" s="52">
+        <f t="shared" ref="K32:M32" si="5">D40</f>
+        <v>0.69440786201517879</v>
+      </c>
+      <c r="L32" s="52">
+        <f t="shared" si="5"/>
+        <v>0.64147841896965241</v>
+      </c>
+      <c r="M32" s="52">
+        <f t="shared" si="5"/>
+        <v>0.88561034619514256</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>200</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
+      <c r="C33" s="31">
+        <f t="shared" si="4"/>
+        <v>0.56589055310284808</v>
+      </c>
+      <c r="D33" s="31">
+        <f t="shared" si="4"/>
+        <v>0.78325413254314313</v>
+      </c>
+      <c r="E33" s="31">
+        <f t="shared" si="4"/>
+        <v>0.73385331903398487</v>
+      </c>
+      <c r="F33" s="31">
+        <f t="shared" si="4"/>
+        <v>0.96170978444444222</v>
+      </c>
       <c r="I33" s="2">
         <v>2000</v>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
+      <c r="J33" s="52">
+        <f>C43</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="K33" s="52">
+        <f t="shared" ref="K33:M33" si="6">D43</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="L33" s="52">
+        <f t="shared" si="6"/>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="M33" s="52">
+        <f t="shared" si="6"/>
+        <v>0.93880038239184349</v>
+      </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>250</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
+      <c r="C34" s="31">
+        <f t="shared" si="4"/>
+        <v>0.52150145996559327</v>
+      </c>
+      <c r="D34" s="31">
+        <f t="shared" si="4"/>
+        <v>0.73886503940588832</v>
+      </c>
+      <c r="E34" s="31">
+        <f t="shared" si="4"/>
+        <v>0.68946422589673018</v>
+      </c>
+      <c r="F34" s="31">
+        <f t="shared" si="4"/>
+        <v>0.91732069130718752</v>
+      </c>
       <c r="I34" s="2">
         <v>4000</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
+      <c r="J34" s="53">
+        <f>C46</f>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="K34" s="53">
+        <f t="shared" ref="K34:M34" si="7">D46</f>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="L34" s="53">
+        <f>E46</f>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="M34" s="53">
+        <f t="shared" si="7"/>
+        <v>0.93880038239184349</v>
+      </c>
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>315</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
+      <c r="C35" s="31">
+        <f t="shared" si="4"/>
+        <v>0.50643919897504486</v>
+      </c>
+      <c r="D35" s="31">
+        <f t="shared" si="4"/>
+        <v>0.72897810173534694</v>
+      </c>
+      <c r="E35" s="31">
+        <f t="shared" si="4"/>
+        <v>0.6784010783807326</v>
+      </c>
+      <c r="F35" s="31">
+        <f t="shared" si="4"/>
+        <v>0.91168269772953436</v>
+      </c>
     </row>
     <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <v>400</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="J36" s="106" t="s">
+      <c r="C36" s="31">
+        <f t="shared" si="4"/>
+        <v>0.49137693798449633</v>
+      </c>
+      <c r="D36" s="31">
+        <f t="shared" si="4"/>
+        <v>0.71909116406480544</v>
+      </c>
+      <c r="E36" s="31">
+        <f t="shared" si="4"/>
+        <v>0.66733793086473503</v>
+      </c>
+      <c r="F36" s="31">
+        <f t="shared" si="4"/>
+        <v>0.90604470415188099</v>
+      </c>
+      <c r="J36" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
       <c r="M36" s="26"/>
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <v>500</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="J37" s="108">
+      <c r="C37" s="31">
+        <f t="shared" si="4"/>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="D37" s="31">
+        <f t="shared" si="4"/>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="E37" s="31">
+        <f t="shared" si="4"/>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="F37" s="31">
+        <f t="shared" si="4"/>
+        <v>0.94479580371148264</v>
+      </c>
+      <c r="J37" s="105">
         <v>0.5</v>
       </c>
       <c r="K37" s="14">
@@ -3646,234 +7043,464 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <v>630</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
+      <c r="C38" s="31">
+        <f t="shared" si="4"/>
+        <v>0.52070377013120273</v>
+      </c>
+      <c r="D38" s="31">
+        <f t="shared" si="4"/>
+        <v>0.75359331953151887</v>
+      </c>
+      <c r="E38" s="31">
+        <f t="shared" si="4"/>
+        <v>0.70066387648599238</v>
+      </c>
+      <c r="F38" s="31">
+        <f t="shared" si="4"/>
+        <v>0.94479580371148264</v>
+      </c>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <v>800</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-      <c r="J39" s="100"/>
+      <c r="C39" s="31">
+        <f t="shared" si="4"/>
+        <v>0.49111104137303269</v>
+      </c>
+      <c r="D39" s="31">
+        <f t="shared" si="4"/>
+        <v>0.72400059077334877</v>
+      </c>
+      <c r="E39" s="31">
+        <f t="shared" si="4"/>
+        <v>0.67107114772782239</v>
+      </c>
+      <c r="F39" s="31">
+        <f>(F16+F17+F18)/3</f>
+        <v>0.91520307495331255</v>
+      </c>
+      <c r="J39" s="97"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="34">
+    <row r="40" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="33">
         <v>1000</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
+      <c r="C40" s="31">
+        <f t="shared" si="4"/>
+        <v>0.4615183126148627</v>
+      </c>
+      <c r="D40" s="31">
+        <f t="shared" si="4"/>
+        <v>0.69440786201517879</v>
+      </c>
+      <c r="E40" s="31">
+        <f t="shared" si="4"/>
+        <v>0.64147841896965241</v>
+      </c>
+      <c r="F40" s="31">
+        <f t="shared" si="4"/>
+        <v>0.88561034619514256</v>
+      </c>
       <c r="I40" s="3">
         <v>250</v>
       </c>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="102"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="34">
+      <c r="J40" s="98">
+        <f>S8-s_1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K40" s="98">
+        <f>S8-s_2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L40" s="98">
+        <f>S8-s_3</f>
+        <v>0.5</v>
+      </c>
+      <c r="M40" s="99">
+        <f>S8-s_4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="33">
         <v>1250</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
+      <c r="C41" s="31">
+        <f t="shared" si="4"/>
+        <v>0.4438127264868244</v>
+      </c>
+      <c r="D41" s="31">
+        <f t="shared" si="4"/>
+        <v>0.68532781475381899</v>
+      </c>
+      <c r="E41" s="31">
+        <f t="shared" si="4"/>
+        <v>0.63043802196586551</v>
+      </c>
+      <c r="F41" s="31">
+        <f t="shared" si="4"/>
+        <v>0.88361187242192951</v>
+      </c>
       <c r="I41" s="4">
         <v>500</v>
       </c>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="93"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="34">
+      <c r="J41" s="118">
+        <f>S9-s_1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="118">
+        <f>S9-s_2</f>
+        <v>0.75</v>
+      </c>
+      <c r="L41" s="118">
+        <f>S9-s_3</f>
+        <v>0.7</v>
+      </c>
+      <c r="M41" s="119">
+        <f>S9-s_4</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="33">
         <v>1600</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
+      <c r="C42" s="31">
+        <f t="shared" si="4"/>
+        <v>0.4556998691169562</v>
+      </c>
+      <c r="D42" s="31">
+        <f t="shared" si="4"/>
+        <v>0.70584049625062895</v>
+      </c>
+      <c r="E42" s="31">
+        <f t="shared" si="4"/>
+        <v>0.64899035372024894</v>
+      </c>
+      <c r="F42" s="31">
+        <f t="shared" si="4"/>
+        <v>0.91120612740688645</v>
+      </c>
       <c r="I42" s="4">
         <v>1000</v>
       </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="93"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="34">
+      <c r="J42" s="118">
+        <f>S10-s_1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="118">
+        <f>S10-s_2</f>
+        <v>0.75</v>
+      </c>
+      <c r="L42" s="118">
+        <f>S10-s_3</f>
+        <v>0.7</v>
+      </c>
+      <c r="M42" s="119">
+        <f>S10-s_4</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="33">
         <v>2000</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
+      <c r="C43" s="31">
+        <f t="shared" si="4"/>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D43" s="31">
+        <f t="shared" si="4"/>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E43" s="31">
+        <f t="shared" si="4"/>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F43" s="31">
+        <f t="shared" si="4"/>
+        <v>0.93880038239184349</v>
+      </c>
       <c r="I43" s="4">
         <v>2000</v>
       </c>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="93"/>
+      <c r="J43" s="118">
+        <f>S11-s_1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="118">
+        <f>S11-s_2</f>
+        <v>0.75</v>
+      </c>
+      <c r="L43" s="118">
+        <f>S11-s_3</f>
+        <v>0.7</v>
+      </c>
+      <c r="M43" s="119">
+        <f>S11-s_4</f>
+        <v>0.95</v>
+      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="34">
+      <c r="B44" s="33">
         <v>2500</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="32"/>
+      <c r="C44" s="31">
+        <f t="shared" si="4"/>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D44" s="31">
+        <f t="shared" si="4"/>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E44" s="31">
+        <f t="shared" si="4"/>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F44" s="31">
+        <f t="shared" si="4"/>
+        <v>0.93880038239184349</v>
+      </c>
       <c r="I44" s="4">
         <v>4000</v>
       </c>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="93"/>
+      <c r="J44" s="118">
+        <f>S12-s_1</f>
+        <v>0.4</v>
+      </c>
+      <c r="K44" s="118">
+        <f>S12-s_2</f>
+        <v>0.65</v>
+      </c>
+      <c r="L44" s="118">
+        <f>S12-s_3</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M44" s="119">
+        <f>S12-s_4</f>
+        <v>0.85</v>
+      </c>
     </row>
     <row r="45" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="34">
+      <c r="B45" s="33">
         <v>3150</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
-      <c r="I45" s="105" t="s">
+      <c r="C45" s="31">
+        <f t="shared" si="4"/>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D45" s="31">
+        <f t="shared" si="4"/>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E45" s="31">
+        <f t="shared" si="4"/>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F45" s="31">
+        <f t="shared" si="4"/>
+        <v>0.93880038239184349</v>
+      </c>
+      <c r="I45" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="J45" s="103">
+      <c r="J45" s="100">
         <f>J41</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="103">
-        <f t="shared" ref="K45:M45" si="0">K41</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="103">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="100">
+        <f t="shared" ref="K45:M45" si="8">K41</f>
+        <v>0.75</v>
+      </c>
+      <c r="L45" s="100">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="M45" s="101">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="34">
+      <c r="B46" s="33">
         <v>4000</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
+      <c r="C46" s="31">
+        <f t="shared" si="4"/>
+        <v>0.46758701174708794</v>
+      </c>
+      <c r="D46" s="31">
+        <f t="shared" si="4"/>
+        <v>0.72635317774743913</v>
+      </c>
+      <c r="E46" s="31">
+        <f t="shared" si="4"/>
+        <v>0.66754268547463214</v>
+      </c>
+      <c r="F46" s="31">
+        <f t="shared" si="4"/>
+        <v>0.93880038239184349</v>
+      </c>
     </row>
     <row r="47" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="35">
+      <c r="B47" s="34">
         <v>5000</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="36"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="35"/>
       <c r="I47" s="27"/>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I48" s="3">
         <v>250</v>
       </c>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="102"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J48" s="118">
+        <f>MAX(0,J40-J30)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="118">
+        <f t="shared" ref="K48:M48" si="9">MAX(0,K40-K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I49" s="4">
         <v>500</v>
       </c>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="93"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" s="99"/>
+      <c r="J49" s="118">
+        <f t="shared" ref="J49:M52" si="10">MAX(0,J41-J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="118">
+        <f t="shared" si="10"/>
+        <v>5.2041962885173154E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="96"/>
       <c r="I50" s="4">
         <v>1000</v>
       </c>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="93"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J50" s="118">
+        <f t="shared" si="10"/>
+        <v>3.8481687385137298E-2</v>
+      </c>
+      <c r="K50" s="118">
+        <f t="shared" si="10"/>
+        <v>5.559213798482121E-2</v>
+      </c>
+      <c r="L50" s="118">
+        <f t="shared" si="10"/>
+        <v>5.8521581030347547E-2</v>
+      </c>
+      <c r="M50" s="118">
+        <f t="shared" si="10"/>
+        <v>6.4389653804857394E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I51" s="4">
         <v>2000</v>
       </c>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="93"/>
+      <c r="J51" s="118">
+        <f t="shared" si="10"/>
+        <v>3.2412988252912056E-2</v>
+      </c>
+      <c r="K51" s="118">
+        <f t="shared" si="10"/>
+        <v>2.3646822252560873E-2</v>
+      </c>
+      <c r="L51" s="118">
+        <f t="shared" si="10"/>
+        <v>3.245731452536782E-2</v>
+      </c>
+      <c r="M51" s="118">
+        <f t="shared" si="10"/>
+        <v>1.1199617608156465E-2</v>
+      </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I52" s="4">
         <v>4000</v>
       </c>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="93"/>
+      <c r="J52" s="118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I53" s="109" t="s">
+      <c r="I53" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="110">
+      <c r="J53" s="107">
         <f>SUM(J47:J52)</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="110">
-        <f t="shared" ref="K53:M53" si="1">SUM(K47:K52)</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.0894675638049354E-2</v>
+      </c>
+      <c r="K53" s="107">
+        <f t="shared" ref="K53:M53" si="11">SUM(K47:K52)</f>
+        <v>7.9238960237382083E-2</v>
+      </c>
+      <c r="L53" s="107">
+        <f t="shared" si="11"/>
+        <v>9.0978895555715367E-2</v>
+      </c>
+      <c r="M53" s="108">
+        <f t="shared" si="11"/>
+        <v>8.0793467701531174E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3892,7 +7519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/RoomAcoustics/modulo 1/5_design_room/rating.xlsx
+++ b/RoomAcoustics/modulo 1/5_design_room/rating.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\modulo 1\5_design_room\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i7\Documents\GitHub\MusicalAcousticsHWs\RoomAcoustics\modulo 1\5_design_room\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3832D6-4648-4F3B-ADC4-D1B1B340C775}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09144FBB-15E8-4FF4-84B8-9CD5102032B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="4" r:id="rId1"/>
     <sheet name="assorbimento" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="c_sound">RT!$C$36</definedName>
@@ -598,7 +596,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +621,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -1083,14 +1105,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,6 +1310,8 @@
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1304,12 +1327,16 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1396,7 +1423,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1564,7 +1591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1031273056"/>
@@ -1617,7 +1644,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1031271808"/>
@@ -1662,7 +1689,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1743,7 +1770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1810,7 +1837,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1953,7 +1980,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2096,7 +2123,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2239,7 +2266,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2392,7 +2419,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1100225264"/>
@@ -2454,7 +2481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1100214032"/>
@@ -2496,7 +2523,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2533,7 +2560,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4075,1958 +4102,2026 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N55" sqref="N54:N71"/>
+    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="82"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="64" t="s">
+    <row r="1" spans="1:14" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="81"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="64" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="45"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="66" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="66">
         <f>C7*C8*C9</f>
         <v>260</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="68" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
-      <c r="B5" s="70" t="s">
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A5" s="44"/>
+      <c r="B5" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="70">
         <f>1.9*(C4)^(1/3)</f>
         <v>12.126758167833824</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="72" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="70" t="s">
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="74">
+      <c r="C6" s="70"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="73">
         <v>100</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="72">
         <f>0.16*$C$4/($C$16*0.03)</f>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="70" t="s">
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="70">
         <v>10</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="74">
+      <c r="D7" s="74"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="73">
         <v>125</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="72">
         <f t="shared" ref="G7:G10" si="0">0.16*$C$4/($C$16*0.03)</f>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H7" s="45"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="70" t="s">
+      <c r="H7" s="44"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="70">
         <v>6.5</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="74">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="73">
         <v>160</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="72">
         <f t="shared" si="0"/>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="70" t="s">
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="70">
         <v>4</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="74">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="73">
         <v>200</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="72">
         <f t="shared" si="0"/>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="74">
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="73">
         <v>250</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="72">
         <f t="shared" si="0"/>
         <v>5.2926208651399493</v>
       </c>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="76" t="s">
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="74">
+      <c r="C11" s="70"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="73">
         <v>315</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <f>0.16*$C$4/($C$16*0.036)</f>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="70" t="s">
+      <c r="H11" s="44"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="70">
         <f>C8*C7</f>
         <v>65</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="74">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="73">
         <v>400</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <f t="shared" ref="G12:G15" si="1">0.16*$C$4/($C$16*0.036)</f>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="70" t="s">
+      <c r="H12" s="44"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="70">
         <f>C12</f>
         <v>65</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="74">
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="73">
         <v>500</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="72">
         <f t="shared" si="1"/>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H13" s="45"/>
+      <c r="H13" s="44"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="70" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="70">
         <f>(C7+C8)*C9*2</f>
         <v>132</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="74">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="73">
         <v>630</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="72">
         <f t="shared" si="1"/>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="70" t="s">
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="74">
+      <c r="C15" s="70"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="73">
         <v>800</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <f t="shared" si="1"/>
         <v>4.4105173876166255</v>
       </c>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78">
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77">
         <f>SUM(C12:C14)</f>
         <v>262</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="79">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="78">
         <v>1000</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="72">
         <f>0.16*$C$4/($C$16*0.04)</f>
         <v>3.9694656488549618</v>
       </c>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="79">
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="78">
         <v>1250</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="72">
         <f t="shared" ref="G17" si="2">0.16*$C$4/($C$16*0.04)</f>
         <v>3.9694656488549618</v>
       </c>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="79">
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="78">
         <v>1600</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="72">
         <f>0.16*$C$4/($C$16*0.045)</f>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="79">
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="78">
         <v>2000</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <f t="shared" ref="G19:G23" si="3">0.16*$C$4/($C$16*0.045)</f>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="79">
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="78">
         <v>2500</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="72">
         <f t="shared" si="3"/>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="79">
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="78">
         <v>3150</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="72">
         <f t="shared" si="3"/>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="79">
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="78">
         <v>4000</v>
       </c>
-      <c r="G22" s="73">
+      <c r="G22" s="72">
         <f t="shared" si="3"/>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H22" s="45"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="80">
+      <c r="H22" s="44"/>
+    </row>
+    <row r="23" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="79">
         <v>5000</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="72">
         <f t="shared" si="3"/>
         <v>3.5284139100932999</v>
       </c>
-      <c r="H23" s="45"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="45"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38" t="s">
+      <c r="H23" s="44"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="111" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111" t="s">
+      <c r="H28" s="112"/>
+      <c r="I28" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111" t="s">
+      <c r="J28" s="112"/>
+      <c r="K28" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111" t="s">
+      <c r="L28" s="112"/>
+      <c r="M28" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="111"/>
-      <c r="O28" s="36"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="44" t="s">
+      <c r="N28" s="112"/>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="47" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="112" t="s">
+      <c r="G29" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="113"/>
-      <c r="I29" s="109" t="s">
+      <c r="H29" s="114"/>
+      <c r="I29" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="110"/>
-      <c r="K29" s="109" t="s">
+      <c r="J29" s="111"/>
+      <c r="K29" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="110"/>
-      <c r="M29" s="109" t="s">
+      <c r="L29" s="111"/>
+      <c r="M29" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="110"/>
-      <c r="O29" s="36"/>
-    </row>
-    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A30" s="36"/>
-      <c r="B30" s="43" t="s">
+      <c r="N29" s="111"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A30" s="35"/>
+      <c r="B30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="48" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="109" t="s">
+      <c r="G30" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="110"/>
-      <c r="I30" s="109" t="s">
+      <c r="H30" s="111"/>
+      <c r="I30" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="110"/>
-      <c r="K30" s="109" t="s">
+      <c r="J30" s="111"/>
+      <c r="K30" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="110"/>
-      <c r="M30" s="109" t="s">
+      <c r="L30" s="111"/>
+      <c r="M30" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="N30" s="110"/>
-      <c r="O30" s="36"/>
-    </row>
-    <row r="31" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="44" t="s">
+      <c r="N30" s="111"/>
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="49">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="48">
         <v>100</v>
       </c>
-      <c r="G31" s="109">
+      <c r="G31" s="110">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H31" s="110"/>
-      <c r="I31" s="109">
+      <c r="H31" s="111"/>
+      <c r="I31" s="110">
         <f>G31-G31*0.15</f>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J31" s="110"/>
-      <c r="K31" s="109">
+      <c r="J31" s="111"/>
+      <c r="K31" s="110">
         <f>G31-G31*0.12</f>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L31" s="110"/>
-      <c r="M31" s="109">
+      <c r="L31" s="111"/>
+      <c r="M31" s="110">
         <f>K31-K31*0.14</f>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N31" s="110"/>
-      <c r="O31" s="36"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="43" t="s">
+      <c r="N31" s="111"/>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="42">
         <v>12</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="49">
+      <c r="D32" s="42"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="48">
         <v>125</v>
       </c>
-      <c r="G32" s="109">
+      <c r="G32" s="110">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H32" s="110"/>
-      <c r="I32" s="109">
+      <c r="H32" s="111"/>
+      <c r="I32" s="110">
         <f t="shared" ref="I32:I48" si="4">G32-G32*0.15</f>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J32" s="110"/>
-      <c r="K32" s="109">
+      <c r="J32" s="111"/>
+      <c r="K32" s="110">
         <f t="shared" ref="K32:K48" si="5">G32-G32*0.12</f>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L32" s="110"/>
-      <c r="M32" s="109">
+      <c r="L32" s="111"/>
+      <c r="M32" s="110">
         <f t="shared" ref="M32:M48" si="6">K32-K32*0.14</f>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N32" s="110"/>
-      <c r="O32" s="36"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="44" t="s">
+      <c r="N32" s="111"/>
+      <c r="O32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="49">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="48">
         <v>160</v>
       </c>
-      <c r="G33" s="109">
+      <c r="G33" s="110">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H33" s="110"/>
-      <c r="I33" s="109">
+      <c r="H33" s="111"/>
+      <c r="I33" s="110">
         <f t="shared" si="4"/>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J33" s="110"/>
-      <c r="K33" s="109">
+      <c r="J33" s="111"/>
+      <c r="K33" s="110">
         <f t="shared" si="5"/>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L33" s="110"/>
-      <c r="M33" s="109">
+      <c r="L33" s="111"/>
+      <c r="M33" s="110">
         <f t="shared" si="6"/>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N33" s="110"/>
-      <c r="O33" s="36"/>
-    </row>
-    <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A34" s="36"/>
-      <c r="B34" s="43" t="s">
+      <c r="N33" s="111"/>
+      <c r="O33" s="35"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A34" s="35"/>
+      <c r="B34" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="49">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="48">
         <v>200</v>
       </c>
-      <c r="G34" s="109">
+      <c r="G34" s="110">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H34" s="110"/>
-      <c r="I34" s="109">
+      <c r="H34" s="111"/>
+      <c r="I34" s="110">
         <f t="shared" si="4"/>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J34" s="110"/>
-      <c r="K34" s="109">
+      <c r="J34" s="111"/>
+      <c r="K34" s="110">
         <f t="shared" si="5"/>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L34" s="110"/>
-      <c r="M34" s="109">
+      <c r="L34" s="111"/>
+      <c r="M34" s="110">
         <f t="shared" si="6"/>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N34" s="110"/>
-      <c r="O34" s="36"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="44" t="s">
+      <c r="N34" s="111"/>
+      <c r="O34" s="35"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="49">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="48">
         <v>250</v>
       </c>
-      <c r="G35" s="109">
+      <c r="G35" s="110">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="109">
+      <c r="H35" s="111"/>
+      <c r="I35" s="110">
         <f t="shared" si="4"/>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J35" s="110"/>
-      <c r="K35" s="109">
+      <c r="J35" s="111"/>
+      <c r="K35" s="110">
         <f t="shared" si="5"/>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L35" s="110"/>
-      <c r="M35" s="109">
+      <c r="L35" s="111"/>
+      <c r="M35" s="110">
         <f t="shared" si="6"/>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N35" s="110"/>
-      <c r="O35" s="36"/>
-    </row>
-    <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A36" s="36"/>
-      <c r="B36" s="43" t="s">
+      <c r="N35" s="111"/>
+      <c r="O35" s="35"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A36" s="35"/>
+      <c r="B36" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="42">
         <v>340</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="49">
+      <c r="E36" s="35"/>
+      <c r="F36" s="48">
         <v>315</v>
       </c>
-      <c r="G36" s="109">
+      <c r="G36" s="110">
         <v>2.8610396219556522</v>
       </c>
-      <c r="H36" s="110"/>
-      <c r="I36" s="109">
+      <c r="H36" s="111"/>
+      <c r="I36" s="110">
         <f t="shared" si="4"/>
         <v>2.4318836786623041</v>
       </c>
-      <c r="J36" s="110"/>
-      <c r="K36" s="109">
+      <c r="J36" s="111"/>
+      <c r="K36" s="110">
         <f t="shared" si="5"/>
         <v>2.5177148673209739</v>
       </c>
-      <c r="L36" s="110"/>
-      <c r="M36" s="109">
+      <c r="L36" s="111"/>
+      <c r="M36" s="110">
         <f t="shared" si="6"/>
         <v>2.1652347858960375</v>
       </c>
-      <c r="N36" s="110"/>
-      <c r="O36" s="36"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="49">
+      <c r="N36" s="111"/>
+      <c r="O36" s="35"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="48">
         <v>400</v>
       </c>
-      <c r="G37" s="109">
+      <c r="G37" s="110">
         <v>2.670303647158609</v>
       </c>
-      <c r="H37" s="110"/>
-      <c r="I37" s="109">
+      <c r="H37" s="111"/>
+      <c r="I37" s="110">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J37" s="110"/>
-      <c r="K37" s="109">
+      <c r="J37" s="111"/>
+      <c r="K37" s="110">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L37" s="110"/>
-      <c r="M37" s="109">
+      <c r="L37" s="111"/>
+      <c r="M37" s="110">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N37" s="110"/>
-      <c r="O37" s="36"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="49">
+      <c r="N37" s="111"/>
+      <c r="O37" s="35"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="48">
         <v>500</v>
       </c>
-      <c r="G38" s="109">
+      <c r="G38" s="110">
         <v>2.670303647158609</v>
       </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="109">
+      <c r="H38" s="111"/>
+      <c r="I38" s="110">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J38" s="110"/>
-      <c r="K38" s="109">
+      <c r="J38" s="111"/>
+      <c r="K38" s="110">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L38" s="110"/>
-      <c r="M38" s="109">
+      <c r="L38" s="111"/>
+      <c r="M38" s="110">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N38" s="110"/>
-      <c r="O38" s="36"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="49">
+      <c r="N38" s="111"/>
+      <c r="O38" s="35"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="48">
         <v>630</v>
       </c>
-      <c r="G39" s="109">
+      <c r="G39" s="110">
         <v>2.670303647158609</v>
       </c>
-      <c r="H39" s="110"/>
-      <c r="I39" s="109">
+      <c r="H39" s="111"/>
+      <c r="I39" s="110">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J39" s="110"/>
-      <c r="K39" s="109">
+      <c r="J39" s="111"/>
+      <c r="K39" s="110">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L39" s="110"/>
-      <c r="M39" s="109">
+      <c r="L39" s="111"/>
+      <c r="M39" s="110">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N39" s="110"/>
-      <c r="O39" s="36"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="49">
+      <c r="N39" s="111"/>
+      <c r="O39" s="35"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="48">
         <v>800</v>
       </c>
-      <c r="G40" s="109">
+      <c r="G40" s="110">
         <v>2.670303647158609</v>
       </c>
-      <c r="H40" s="110"/>
-      <c r="I40" s="109">
+      <c r="H40" s="111"/>
+      <c r="I40" s="110">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J40" s="110"/>
-      <c r="K40" s="109">
+      <c r="J40" s="111"/>
+      <c r="K40" s="110">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L40" s="110"/>
-      <c r="M40" s="109">
+      <c r="L40" s="111"/>
+      <c r="M40" s="110">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N40" s="110"/>
-      <c r="O40" s="36"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="50">
+      <c r="N40" s="111"/>
+      <c r="O40" s="35"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="49">
         <v>1000</v>
       </c>
-      <c r="G41" s="109">
+      <c r="G41" s="110">
         <v>2.670303647158609</v>
       </c>
-      <c r="H41" s="110"/>
-      <c r="I41" s="109">
+      <c r="H41" s="111"/>
+      <c r="I41" s="110">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J41" s="110"/>
-      <c r="K41" s="109">
+      <c r="J41" s="111"/>
+      <c r="K41" s="110">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L41" s="110"/>
-      <c r="M41" s="109">
+      <c r="L41" s="111"/>
+      <c r="M41" s="110">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N41" s="110"/>
-      <c r="O41" s="36"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="50">
+      <c r="N41" s="111"/>
+      <c r="O41" s="35"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="49">
         <v>1250</v>
       </c>
-      <c r="G42" s="109">
+      <c r="G42" s="110">
         <v>2.670303647158609</v>
       </c>
-      <c r="H42" s="110"/>
-      <c r="I42" s="109">
+      <c r="H42" s="111"/>
+      <c r="I42" s="110">
         <f t="shared" si="4"/>
         <v>2.2697581000848177</v>
       </c>
-      <c r="J42" s="110"/>
-      <c r="K42" s="109">
+      <c r="J42" s="111"/>
+      <c r="K42" s="110">
         <f t="shared" si="5"/>
         <v>2.3498672094995761</v>
       </c>
-      <c r="L42" s="110"/>
-      <c r="M42" s="109">
+      <c r="L42" s="111"/>
+      <c r="M42" s="110">
         <f t="shared" si="6"/>
         <v>2.0208858001696353</v>
       </c>
-      <c r="N42" s="110"/>
-      <c r="O42" s="36"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="50">
+      <c r="N42" s="111"/>
+      <c r="O42" s="35"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="49">
         <v>1600</v>
       </c>
-      <c r="G43" s="109">
+      <c r="G43" s="110">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H43" s="110"/>
-      <c r="I43" s="109">
+      <c r="H43" s="111"/>
+      <c r="I43" s="110">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J43" s="110"/>
-      <c r="K43" s="109">
+      <c r="J43" s="111"/>
+      <c r="K43" s="110">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L43" s="110"/>
-      <c r="M43" s="109">
+      <c r="L43" s="111"/>
+      <c r="M43" s="110">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N43" s="110"/>
-      <c r="O43" s="36"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="50">
+      <c r="N43" s="111"/>
+      <c r="O43" s="35"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="49">
         <v>2000</v>
       </c>
-      <c r="G44" s="109">
+      <c r="G44" s="110">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H44" s="110"/>
-      <c r="I44" s="109">
+      <c r="H44" s="111"/>
+      <c r="I44" s="110">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J44" s="110"/>
-      <c r="K44" s="109">
+      <c r="J44" s="111"/>
+      <c r="K44" s="110">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L44" s="110"/>
-      <c r="M44" s="109">
+      <c r="L44" s="111"/>
+      <c r="M44" s="110">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N44" s="110"/>
-      <c r="O44" s="36"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="50">
+      <c r="N44" s="111"/>
+      <c r="O44" s="35"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="49">
         <v>2500</v>
       </c>
-      <c r="G45" s="109">
+      <c r="G45" s="110">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H45" s="110"/>
-      <c r="I45" s="109">
+      <c r="H45" s="111"/>
+      <c r="I45" s="110">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J45" s="110"/>
-      <c r="K45" s="109">
+      <c r="J45" s="111"/>
+      <c r="K45" s="110">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L45" s="110"/>
-      <c r="M45" s="109">
+      <c r="L45" s="111"/>
+      <c r="M45" s="110">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N45" s="110"/>
-      <c r="O45" s="36"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="50">
+      <c r="N45" s="111"/>
+      <c r="O45" s="35"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="49">
         <v>3150</v>
       </c>
-      <c r="G46" s="109">
+      <c r="G46" s="110">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H46" s="110"/>
-      <c r="I46" s="109">
+      <c r="H46" s="111"/>
+      <c r="I46" s="110">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J46" s="110"/>
-      <c r="K46" s="109">
+      <c r="J46" s="111"/>
+      <c r="K46" s="110">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L46" s="110"/>
-      <c r="M46" s="109">
+      <c r="L46" s="111"/>
+      <c r="M46" s="110">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N46" s="110"/>
-      <c r="O46" s="36"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="50">
+      <c r="N46" s="111"/>
+      <c r="O46" s="35"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="49">
         <v>4000</v>
       </c>
-      <c r="G47" s="109">
+      <c r="G47" s="110">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H47" s="110"/>
-      <c r="I47" s="109">
+      <c r="H47" s="111"/>
+      <c r="I47" s="110">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J47" s="110"/>
-      <c r="K47" s="109">
+      <c r="J47" s="111"/>
+      <c r="K47" s="110">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L47" s="110"/>
-      <c r="M47" s="109">
+      <c r="L47" s="111"/>
+      <c r="M47" s="110">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N47" s="110"/>
-      <c r="O47" s="36"/>
-    </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="51">
+      <c r="N47" s="111"/>
+      <c r="O47" s="35"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="50">
         <v>5000</v>
       </c>
-      <c r="G48" s="109">
+      <c r="G48" s="110">
         <v>2.4032732824427478</v>
       </c>
-      <c r="H48" s="110"/>
-      <c r="I48" s="109">
+      <c r="H48" s="111"/>
+      <c r="I48" s="110">
         <f t="shared" si="4"/>
         <v>2.0427822900763357</v>
       </c>
-      <c r="J48" s="110"/>
-      <c r="K48" s="109">
+      <c r="J48" s="111"/>
+      <c r="K48" s="110">
         <f t="shared" si="5"/>
         <v>2.114880488549618</v>
       </c>
-      <c r="L48" s="110"/>
-      <c r="M48" s="109">
+      <c r="L48" s="111"/>
+      <c r="M48" s="110">
         <f t="shared" si="6"/>
         <v>1.8187972201526714</v>
       </c>
-      <c r="N48" s="110"/>
-      <c r="O48" s="36"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="57" t="s">
+      <c r="N48" s="111"/>
+      <c r="O48" s="35"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="39"/>
-    </row>
-    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="59" t="s">
+      <c r="G52" s="57"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="38"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="60" t="s">
+      <c r="G53" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="I53" s="60" t="s">
+      <c r="I53" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="J53" s="60" t="s">
+      <c r="J53" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="K53" s="60" t="s">
+      <c r="K53" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="L53" s="60" t="s">
+      <c r="L53" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="M53" s="60" t="s">
+      <c r="M53" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="N53" s="60" t="s">
+      <c r="N53" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="O53" s="39"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="61">
+      <c r="O53" s="38"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="60">
         <v>100</v>
       </c>
-      <c r="G54" s="62">
-        <f>55.3*volume*(1/(c_sound*G31) - 1/(c_sound*G6))</f>
+      <c r="G54" s="61">
+        <f t="shared" ref="G54:G71" si="7">55.3*volume*(1/(c_sound*G31) - 1/(c_sound*G6))</f>
         <v>6.7906866372341765</v>
       </c>
-      <c r="H54" s="62">
-        <f>G54/surf</f>
+      <c r="H54" s="61">
+        <f t="shared" ref="H54:H71" si="8">G54/surf</f>
         <v>0.56589055310284808</v>
       </c>
-      <c r="I54" s="62">
-        <f>55.3*volume*(1/(c_sound*I31) - 1/(c_sound*G6))</f>
+      <c r="I54" s="61">
+        <f t="shared" ref="I54:I71" si="9">55.3*volume*(1/(c_sound*I31) - 1/(c_sound*G6))</f>
         <v>9.399049590517718</v>
       </c>
-      <c r="J54" s="62">
-        <f>I54/surf</f>
+      <c r="J54" s="61">
+        <f t="shared" ref="J54:J71" si="10">I54/surf</f>
         <v>0.78325413254314313</v>
       </c>
-      <c r="K54" s="62">
-        <f>55.3*volume*(1/(c_sound*K31) - 1/(c_sound*G6))</f>
+      <c r="K54" s="61">
+        <f t="shared" ref="K54:K71" si="11">55.3*volume*(1/(c_sound*K31) - 1/(c_sound*G6))</f>
         <v>8.8062398284078185</v>
       </c>
-      <c r="L54" s="62">
-        <f>K54/surf</f>
+      <c r="L54" s="61">
+        <f t="shared" ref="L54:L71" si="12">K54/surf</f>
         <v>0.73385331903398487</v>
       </c>
-      <c r="M54" s="62">
-        <f>55.3*volume*(1/(c_sound*M31) - 1/(c_sound*G6))</f>
+      <c r="M54" s="61">
+        <f t="shared" ref="M54:M71" si="13">55.3*volume*(1/(c_sound*M31) - 1/(c_sound*G6))</f>
         <v>11.540517413333307</v>
       </c>
-      <c r="N54" s="62">
-        <f>M54/surf</f>
+      <c r="N54" s="61">
+        <f t="shared" ref="N54:N71" si="14">M54/surf</f>
         <v>0.96170978444444222</v>
       </c>
-      <c r="O54" s="39"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="61">
+      <c r="O54" s="38"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="60">
         <v>125</v>
       </c>
-      <c r="G55" s="62">
-        <f>55.3*volume*(1/(c_sound*G32) - 1/(c_sound*G7))</f>
+      <c r="G55" s="61">
+        <f t="shared" si="7"/>
         <v>6.7906866372341765</v>
       </c>
-      <c r="H55" s="62">
-        <f>G55/surf</f>
+      <c r="H55" s="61">
+        <f t="shared" si="8"/>
         <v>0.56589055310284808</v>
       </c>
-      <c r="I55" s="62">
-        <f>55.3*volume*(1/(c_sound*I32) - 1/(c_sound*G7))</f>
+      <c r="I55" s="61">
+        <f t="shared" si="9"/>
         <v>9.399049590517718</v>
       </c>
-      <c r="J55" s="62">
-        <f>I55/surf</f>
+      <c r="J55" s="61">
+        <f t="shared" si="10"/>
         <v>0.78325413254314313</v>
       </c>
-      <c r="K55" s="62">
-        <f>55.3*volume*(1/(c_sound*K32) - 1/(c_sound*G7))</f>
+      <c r="K55" s="61">
+        <f t="shared" si="11"/>
         <v>8.8062398284078185</v>
       </c>
-      <c r="L55" s="62">
-        <f>K55/surf</f>
+      <c r="L55" s="61">
+        <f t="shared" si="12"/>
         <v>0.73385331903398487</v>
       </c>
-      <c r="M55" s="62">
-        <f>55.3*volume*(1/(c_sound*M32) - 1/(c_sound*G7))</f>
+      <c r="M55" s="61">
+        <f t="shared" si="13"/>
         <v>11.540517413333307</v>
       </c>
-      <c r="N55" s="62">
-        <f>M55/surf</f>
+      <c r="N55" s="61">
+        <f t="shared" si="14"/>
         <v>0.96170978444444222</v>
       </c>
-      <c r="O55" s="39"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="61">
+      <c r="O55" s="38"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="60">
         <v>160</v>
       </c>
-      <c r="G56" s="62">
-        <f>55.3*volume*(1/(c_sound*G33) - 1/(c_sound*G8))</f>
+      <c r="G56" s="61">
+        <f t="shared" si="7"/>
         <v>6.7906866372341765</v>
       </c>
-      <c r="H56" s="62">
-        <f>G56/surf</f>
+      <c r="H56" s="61">
+        <f t="shared" si="8"/>
         <v>0.56589055310284808</v>
       </c>
-      <c r="I56" s="62">
-        <f>55.3*volume*(1/(c_sound*I33) - 1/(c_sound*G8))</f>
+      <c r="I56" s="61">
+        <f t="shared" si="9"/>
         <v>9.399049590517718</v>
       </c>
-      <c r="J56" s="62">
-        <f>I56/surf</f>
+      <c r="J56" s="61">
+        <f t="shared" si="10"/>
         <v>0.78325413254314313</v>
       </c>
-      <c r="K56" s="62">
-        <f>55.3*volume*(1/(c_sound*K33) - 1/(c_sound*G8))</f>
+      <c r="K56" s="61">
+        <f t="shared" si="11"/>
         <v>8.8062398284078185</v>
       </c>
-      <c r="L56" s="62">
-        <f>K56/surf</f>
+      <c r="L56" s="61">
+        <f t="shared" si="12"/>
         <v>0.73385331903398487</v>
       </c>
-      <c r="M56" s="62">
-        <f>55.3*volume*(1/(c_sound*M33) - 1/(c_sound*G8))</f>
+      <c r="M56" s="61">
+        <f t="shared" si="13"/>
         <v>11.540517413333307</v>
       </c>
-      <c r="N56" s="62">
-        <f>M56/surf</f>
+      <c r="N56" s="61">
+        <f t="shared" si="14"/>
         <v>0.96170978444444222</v>
       </c>
-      <c r="O56" s="39"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="61">
+      <c r="O56" s="38"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="60">
         <v>200</v>
       </c>
-      <c r="G57" s="62">
-        <f>55.3*volume*(1/(c_sound*G34) - 1/(c_sound*G9))</f>
+      <c r="G57" s="61">
+        <f t="shared" si="7"/>
         <v>6.7906866372341765</v>
       </c>
-      <c r="H57" s="62">
-        <f>G57/surf</f>
+      <c r="H57" s="61">
+        <f t="shared" si="8"/>
         <v>0.56589055310284808</v>
       </c>
-      <c r="I57" s="62">
-        <f>55.3*volume*(1/(c_sound*I34) - 1/(c_sound*G9))</f>
+      <c r="I57" s="61">
+        <f t="shared" si="9"/>
         <v>9.399049590517718</v>
       </c>
-      <c r="J57" s="62">
-        <f>I57/surf</f>
+      <c r="J57" s="61">
+        <f t="shared" si="10"/>
         <v>0.78325413254314313</v>
       </c>
-      <c r="K57" s="62">
-        <f>55.3*volume*(1/(c_sound*K34) - 1/(c_sound*G9))</f>
+      <c r="K57" s="61">
+        <f t="shared" si="11"/>
         <v>8.8062398284078185</v>
       </c>
-      <c r="L57" s="62">
-        <f>K57/surf</f>
+      <c r="L57" s="61">
+        <f t="shared" si="12"/>
         <v>0.73385331903398487</v>
       </c>
-      <c r="M57" s="62">
-        <f>55.3*volume*(1/(c_sound*M34) - 1/(c_sound*G9))</f>
+      <c r="M57" s="61">
+        <f t="shared" si="13"/>
         <v>11.540517413333307</v>
       </c>
-      <c r="N57" s="62">
-        <f>M57/surf</f>
+      <c r="N57" s="61">
+        <f t="shared" si="14"/>
         <v>0.96170978444444222</v>
       </c>
-      <c r="O57" s="39"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="61">
+      <c r="O57" s="38"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="60">
         <v>250</v>
       </c>
-      <c r="G58" s="62">
-        <f>55.3*volume*(1/(c_sound*G35) - 1/(c_sound*G10))</f>
+      <c r="G58" s="61">
+        <f t="shared" si="7"/>
         <v>6.7906866372341765</v>
       </c>
-      <c r="H58" s="62">
-        <f>G58/surf</f>
+      <c r="H58" s="61">
+        <f t="shared" si="8"/>
         <v>0.56589055310284808</v>
       </c>
-      <c r="I58" s="62">
-        <f>55.3*volume*(1/(c_sound*I35) - 1/(c_sound*G10))</f>
+      <c r="I58" s="61">
+        <f t="shared" si="9"/>
         <v>9.399049590517718</v>
       </c>
-      <c r="J58" s="62">
-        <f>I58/surf</f>
+      <c r="J58" s="61">
+        <f t="shared" si="10"/>
         <v>0.78325413254314313</v>
       </c>
-      <c r="K58" s="62">
-        <f>55.3*volume*(1/(c_sound*K35) - 1/(c_sound*G10))</f>
+      <c r="K58" s="61">
+        <f t="shared" si="11"/>
         <v>8.8062398284078185</v>
       </c>
-      <c r="L58" s="62">
-        <f>K58/surf</f>
+      <c r="L58" s="61">
+        <f t="shared" si="12"/>
         <v>0.73385331903398487</v>
       </c>
-      <c r="M58" s="62">
-        <f>55.3*volume*(1/(c_sound*M35) - 1/(c_sound*G10))</f>
+      <c r="M58" s="61">
+        <f t="shared" si="13"/>
         <v>11.540517413333307</v>
       </c>
-      <c r="N58" s="62">
-        <f>M58/surf</f>
+      <c r="N58" s="61">
+        <f t="shared" si="14"/>
         <v>0.96170978444444222</v>
       </c>
-      <c r="O58" s="39"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="61">
+      <c r="O58" s="38"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="60">
         <v>315</v>
       </c>
-      <c r="G59" s="62">
-        <f>55.3*volume*(1/(c_sound*G36) - 1/(c_sound*G11))</f>
+      <c r="G59" s="61">
+        <f t="shared" si="7"/>
         <v>5.1926792842930034</v>
       </c>
-      <c r="H59" s="62">
-        <f>G59/surf</f>
+      <c r="H59" s="61">
+        <f t="shared" si="8"/>
         <v>0.4327232736910836</v>
       </c>
-      <c r="I59" s="62">
-        <f>55.3*volume*(1/(c_sound*I36) - 1/(c_sound*G11))</f>
+      <c r="I59" s="61">
+        <f t="shared" si="9"/>
         <v>7.8010422375765449</v>
       </c>
-      <c r="J59" s="62">
-        <f>I59/surf</f>
+      <c r="J59" s="61">
+        <f t="shared" si="10"/>
         <v>0.65008685313137871</v>
       </c>
-      <c r="K59" s="62">
-        <f>55.3*volume*(1/(c_sound*K36) - 1/(c_sound*G11))</f>
+      <c r="K59" s="61">
+        <f t="shared" si="11"/>
         <v>7.2082324754666462</v>
       </c>
-      <c r="L59" s="62">
-        <f>K59/surf</f>
+      <c r="L59" s="61">
+        <f t="shared" si="12"/>
         <v>0.60068603962222056</v>
       </c>
-      <c r="M59" s="62">
-        <f>55.3*volume*(1/(c_sound*M36) - 1/(c_sound*G11))</f>
+      <c r="M59" s="61">
+        <f t="shared" si="13"/>
         <v>9.9425100603921344</v>
       </c>
-      <c r="N59" s="62">
-        <f>M59/surf</f>
+      <c r="N59" s="61">
+        <f t="shared" si="14"/>
         <v>0.8285425050326779</v>
       </c>
-      <c r="O59" s="39"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="61">
+      <c r="O59" s="38"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="60">
         <v>400</v>
       </c>
-      <c r="G60" s="62">
-        <f>55.3*volume*(1/(c_sound*G37) - 1/(c_sound*G12))</f>
+      <c r="G60" s="61">
+        <f t="shared" si="7"/>
         <v>6.2484452415744327</v>
       </c>
-      <c r="H60" s="62">
-        <f>G60/surf</f>
+      <c r="H60" s="61">
+        <f t="shared" si="8"/>
         <v>0.52070377013120273</v>
       </c>
-      <c r="I60" s="62">
-        <f>55.3*volume*(1/(c_sound*I37) - 1/(c_sound*G12))</f>
+      <c r="I60" s="61">
+        <f t="shared" si="9"/>
         <v>9.043119834378226</v>
       </c>
-      <c r="J60" s="62">
-        <f>I60/surf</f>
+      <c r="J60" s="61">
+        <f t="shared" si="10"/>
         <v>0.75359331953151887</v>
       </c>
-      <c r="K60" s="62">
-        <f>55.3*volume*(1/(c_sound*K37) - 1/(c_sound*G12))</f>
+      <c r="K60" s="61">
+        <f t="shared" si="11"/>
         <v>8.407966517831909</v>
       </c>
-      <c r="L60" s="62">
-        <f>K60/surf</f>
+      <c r="L60" s="61">
+        <f t="shared" si="12"/>
         <v>0.70066387648599238</v>
       </c>
-      <c r="M60" s="62">
-        <f>55.3*volume*(1/(c_sound*M37) - 1/(c_sound*G12))</f>
+      <c r="M60" s="61">
+        <f t="shared" si="13"/>
         <v>11.337549644537791</v>
       </c>
-      <c r="N60" s="62">
-        <f>M60/surf</f>
+      <c r="N60" s="61">
+        <f t="shared" si="14"/>
         <v>0.94479580371148264</v>
       </c>
-      <c r="O60" s="39"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="61">
+      <c r="O60" s="38"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="60">
         <v>500</v>
       </c>
-      <c r="G61" s="62">
-        <f>55.3*volume*(1/(c_sound*G38) - 1/(c_sound*G13))</f>
+      <c r="G61" s="61">
+        <f t="shared" si="7"/>
         <v>6.2484452415744327</v>
       </c>
-      <c r="H61" s="62">
-        <f>G61/surf</f>
+      <c r="H61" s="61">
+        <f t="shared" si="8"/>
         <v>0.52070377013120273</v>
       </c>
-      <c r="I61" s="62">
-        <f>55.3*volume*(1/(c_sound*I38) - 1/(c_sound*G13))</f>
+      <c r="I61" s="61">
+        <f t="shared" si="9"/>
         <v>9.043119834378226</v>
       </c>
-      <c r="J61" s="62">
-        <f>I61/surf</f>
+      <c r="J61" s="61">
+        <f t="shared" si="10"/>
         <v>0.75359331953151887</v>
       </c>
-      <c r="K61" s="62">
-        <f>55.3*volume*(1/(c_sound*K38) - 1/(c_sound*G13))</f>
+      <c r="K61" s="61">
+        <f t="shared" si="11"/>
         <v>8.407966517831909</v>
       </c>
-      <c r="L61" s="62">
-        <f>K61/surf</f>
+      <c r="L61" s="61">
+        <f t="shared" si="12"/>
         <v>0.70066387648599238</v>
       </c>
-      <c r="M61" s="62">
-        <f>55.3*volume*(1/(c_sound*M38) - 1/(c_sound*G13))</f>
+      <c r="M61" s="61">
+        <f t="shared" si="13"/>
         <v>11.337549644537791</v>
       </c>
-      <c r="N61" s="62">
-        <f>M61/surf</f>
+      <c r="N61" s="61">
+        <f t="shared" si="14"/>
         <v>0.94479580371148264</v>
       </c>
-      <c r="O61" s="39"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="61">
+      <c r="O61" s="38"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="60">
         <v>630</v>
       </c>
-      <c r="G62" s="62">
-        <f>55.3*volume*(1/(c_sound*G39) - 1/(c_sound*G14))</f>
+      <c r="G62" s="61">
+        <f t="shared" si="7"/>
         <v>6.2484452415744327</v>
       </c>
-      <c r="H62" s="62">
-        <f>G62/surf</f>
+      <c r="H62" s="61">
+        <f t="shared" si="8"/>
         <v>0.52070377013120273</v>
       </c>
-      <c r="I62" s="62">
-        <f>55.3*volume*(1/(c_sound*I39) - 1/(c_sound*G14))</f>
+      <c r="I62" s="61">
+        <f t="shared" si="9"/>
         <v>9.043119834378226</v>
       </c>
-      <c r="J62" s="62">
-        <f>I62/surf</f>
+      <c r="J62" s="61">
+        <f t="shared" si="10"/>
         <v>0.75359331953151887</v>
       </c>
-      <c r="K62" s="62">
-        <f>55.3*volume*(1/(c_sound*K39) - 1/(c_sound*G14))</f>
+      <c r="K62" s="61">
+        <f t="shared" si="11"/>
         <v>8.407966517831909</v>
       </c>
-      <c r="L62" s="62">
-        <f>K62/surf</f>
+      <c r="L62" s="61">
+        <f t="shared" si="12"/>
         <v>0.70066387648599238</v>
       </c>
-      <c r="M62" s="62">
-        <f>55.3*volume*(1/(c_sound*M39) - 1/(c_sound*G14))</f>
+      <c r="M62" s="61">
+        <f t="shared" si="13"/>
         <v>11.337549644537791</v>
       </c>
-      <c r="N62" s="62">
-        <f>M62/surf</f>
+      <c r="N62" s="61">
+        <f t="shared" si="14"/>
         <v>0.94479580371148264</v>
       </c>
-      <c r="O62" s="39"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="61">
+      <c r="O62" s="38"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="60">
         <v>800</v>
       </c>
-      <c r="G63" s="62">
-        <f>55.3*volume*(1/(c_sound*G40) - 1/(c_sound*G15))</f>
+      <c r="G63" s="61">
+        <f t="shared" si="7"/>
         <v>6.2484452415744327</v>
       </c>
-      <c r="H63" s="62">
-        <f>G63/surf</f>
+      <c r="H63" s="61">
+        <f t="shared" si="8"/>
         <v>0.52070377013120273</v>
       </c>
-      <c r="I63" s="62">
-        <f>55.3*volume*(1/(c_sound*I40) - 1/(c_sound*G15))</f>
+      <c r="I63" s="61">
+        <f t="shared" si="9"/>
         <v>9.043119834378226</v>
       </c>
-      <c r="J63" s="62">
-        <f>I63/surf</f>
+      <c r="J63" s="61">
+        <f t="shared" si="10"/>
         <v>0.75359331953151887</v>
       </c>
-      <c r="K63" s="62">
-        <f>55.3*volume*(1/(c_sound*K40) - 1/(c_sound*G15))</f>
+      <c r="K63" s="61">
+        <f t="shared" si="11"/>
         <v>8.407966517831909</v>
       </c>
-      <c r="L63" s="62">
-        <f>K63/surf</f>
+      <c r="L63" s="61">
+        <f t="shared" si="12"/>
         <v>0.70066387648599238</v>
       </c>
-      <c r="M63" s="62">
-        <f>55.3*volume*(1/(c_sound*M40) - 1/(c_sound*G15))</f>
+      <c r="M63" s="61">
+        <f t="shared" si="13"/>
         <v>11.337549644537791</v>
       </c>
-      <c r="N63" s="62">
-        <f>M63/surf</f>
+      <c r="N63" s="61">
+        <f t="shared" si="14"/>
         <v>0.94479580371148264</v>
       </c>
-      <c r="O63" s="39"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="63">
+      <c r="O63" s="38"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="62">
         <v>1000</v>
       </c>
-      <c r="G64" s="62">
-        <f>55.3*volume*(1/(c_sound*G41) - 1/(c_sound*G16))</f>
+      <c r="G64" s="61">
+        <f t="shared" si="7"/>
         <v>5.183107006280312</v>
       </c>
-      <c r="H64" s="62">
-        <f>G64/surf</f>
+      <c r="H64" s="61">
+        <f t="shared" si="8"/>
         <v>0.43192558385669266</v>
       </c>
-      <c r="I64" s="62">
-        <f>55.3*volume*(1/(c_sound*I41) - 1/(c_sound*G16))</f>
+      <c r="I64" s="61">
+        <f t="shared" si="9"/>
         <v>7.9777815990841052</v>
       </c>
-      <c r="J64" s="62">
-        <f>I64/surf</f>
+      <c r="J64" s="61">
+        <f t="shared" si="10"/>
         <v>0.66481513325700881</v>
       </c>
-      <c r="K64" s="62">
-        <f>55.3*volume*(1/(c_sound*K41) - 1/(c_sound*G16))</f>
+      <c r="K64" s="61">
+        <f t="shared" si="11"/>
         <v>7.3426282825377882</v>
       </c>
-      <c r="L64" s="62">
-        <f>K64/surf</f>
+      <c r="L64" s="61">
+        <f t="shared" si="12"/>
         <v>0.61188569021148231</v>
       </c>
-      <c r="M64" s="62">
-        <f>55.3*volume*(1/(c_sound*M41) - 1/(c_sound*G16))</f>
+      <c r="M64" s="61">
+        <f t="shared" si="13"/>
         <v>10.27221140924367</v>
       </c>
-      <c r="N64" s="62">
-        <f>M64/surf</f>
+      <c r="N64" s="61">
+        <f t="shared" si="14"/>
         <v>0.85601761743697258</v>
       </c>
-      <c r="O64" s="39"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="63">
+      <c r="O64" s="38"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="62">
         <v>1250</v>
       </c>
-      <c r="G65" s="62">
-        <f>55.3*volume*(1/(c_sound*G42) - 1/(c_sound*G17))</f>
+      <c r="G65" s="61">
+        <f t="shared" si="7"/>
         <v>5.183107006280312</v>
       </c>
-      <c r="H65" s="62">
-        <f>G65/surf</f>
+      <c r="H65" s="61">
+        <f t="shared" si="8"/>
         <v>0.43192558385669266</v>
       </c>
-      <c r="I65" s="62">
-        <f>55.3*volume*(1/(c_sound*I42) - 1/(c_sound*G17))</f>
+      <c r="I65" s="61">
+        <f t="shared" si="9"/>
         <v>7.9777815990841052</v>
       </c>
-      <c r="J65" s="62">
-        <f>I65/surf</f>
+      <c r="J65" s="61">
+        <f t="shared" si="10"/>
         <v>0.66481513325700881</v>
       </c>
-      <c r="K65" s="62">
-        <f>55.3*volume*(1/(c_sound*K42) - 1/(c_sound*G17))</f>
+      <c r="K65" s="61">
+        <f t="shared" si="11"/>
         <v>7.3426282825377882</v>
       </c>
-      <c r="L65" s="62">
-        <f>K65/surf</f>
+      <c r="L65" s="61">
+        <f t="shared" si="12"/>
         <v>0.61188569021148231</v>
       </c>
-      <c r="M65" s="62">
-        <f>55.3*volume*(1/(c_sound*M42) - 1/(c_sound*G17))</f>
+      <c r="M65" s="61">
+        <f t="shared" si="13"/>
         <v>10.27221140924367</v>
       </c>
-      <c r="N65" s="62">
-        <f>M65/surf</f>
+      <c r="N65" s="61">
+        <f t="shared" si="14"/>
         <v>0.85601761743697258</v>
       </c>
-      <c r="O65" s="39"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="63">
+      <c r="O65" s="38"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="62">
         <v>1600</v>
       </c>
-      <c r="G66" s="62">
-        <f>55.3*volume*(1/(c_sound*G43) - 1/(c_sound*G18))</f>
+      <c r="G66" s="61">
+        <f t="shared" si="7"/>
         <v>5.6110441409650553</v>
       </c>
-      <c r="H66" s="62">
-        <f>G66/surf</f>
+      <c r="H66" s="61">
+        <f t="shared" si="8"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="I66" s="62">
-        <f>55.3*volume*(1/(c_sound*I43) - 1/(c_sound*G18))</f>
+      <c r="I66" s="61">
+        <f t="shared" si="9"/>
         <v>8.71623813296927</v>
       </c>
-      <c r="J66" s="62">
-        <f>I66/surf</f>
+      <c r="J66" s="61">
+        <f t="shared" si="10"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="K66" s="62">
-        <f>55.3*volume*(1/(c_sound*K43) - 1/(c_sound*G18))</f>
+      <c r="K66" s="61">
+        <f t="shared" si="11"/>
         <v>8.0105122256955852</v>
       </c>
-      <c r="L66" s="62">
-        <f>K66/surf</f>
+      <c r="L66" s="61">
+        <f t="shared" si="12"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="M66" s="62">
-        <f>55.3*volume*(1/(c_sound*M43) - 1/(c_sound*G18))</f>
+      <c r="M66" s="61">
+        <f t="shared" si="13"/>
         <v>11.265604588702121</v>
       </c>
-      <c r="N66" s="62">
-        <f>M66/surf</f>
+      <c r="N66" s="61">
+        <f t="shared" si="14"/>
         <v>0.93880038239184349</v>
       </c>
-      <c r="O66" s="39"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="63">
+      <c r="O66" s="38"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="62">
         <v>2000</v>
       </c>
-      <c r="G67" s="62">
-        <f>55.3*volume*(1/(c_sound*G44) - 1/(c_sound*G19))</f>
+      <c r="G67" s="61">
+        <f t="shared" si="7"/>
         <v>5.6110441409650553</v>
       </c>
-      <c r="H67" s="62">
-        <f>G67/surf</f>
+      <c r="H67" s="61">
+        <f t="shared" si="8"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="I67" s="62">
-        <f>55.3*volume*(1/(c_sound*I44) - 1/(c_sound*G19))</f>
+      <c r="I67" s="61">
+        <f t="shared" si="9"/>
         <v>8.71623813296927</v>
       </c>
-      <c r="J67" s="62">
-        <f>I67/surf</f>
+      <c r="J67" s="61">
+        <f t="shared" si="10"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="K67" s="62">
-        <f>55.3*volume*(1/(c_sound*K44) - 1/(c_sound*G19))</f>
+      <c r="K67" s="61">
+        <f t="shared" si="11"/>
         <v>8.0105122256955852</v>
       </c>
-      <c r="L67" s="62">
-        <f>K67/surf</f>
+      <c r="L67" s="61">
+        <f t="shared" si="12"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="M67" s="62">
-        <f>55.3*volume*(1/(c_sound*M44) - 1/(c_sound*G19))</f>
+      <c r="M67" s="61">
+        <f t="shared" si="13"/>
         <v>11.265604588702121</v>
       </c>
-      <c r="N67" s="62">
-        <f>M67/surf</f>
+      <c r="N67" s="61">
+        <f t="shared" si="14"/>
         <v>0.93880038239184349</v>
       </c>
-      <c r="O67" s="39"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="63">
+      <c r="O67" s="38"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="62">
         <v>2500</v>
       </c>
-      <c r="G68" s="62">
-        <f>55.3*volume*(1/(c_sound*G45) - 1/(c_sound*G20))</f>
+      <c r="G68" s="61">
+        <f t="shared" si="7"/>
         <v>5.6110441409650553</v>
       </c>
-      <c r="H68" s="62">
-        <f>G68/surf</f>
+      <c r="H68" s="61">
+        <f t="shared" si="8"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="I68" s="62">
-        <f>55.3*volume*(1/(c_sound*I45) - 1/(c_sound*G20))</f>
+      <c r="I68" s="61">
+        <f t="shared" si="9"/>
         <v>8.71623813296927</v>
       </c>
-      <c r="J68" s="62">
-        <f>I68/surf</f>
+      <c r="J68" s="61">
+        <f t="shared" si="10"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="K68" s="62">
-        <f>55.3*volume*(1/(c_sound*K45) - 1/(c_sound*G20))</f>
+      <c r="K68" s="61">
+        <f t="shared" si="11"/>
         <v>8.0105122256955852</v>
       </c>
-      <c r="L68" s="62">
-        <f>K68/surf</f>
+      <c r="L68" s="61">
+        <f t="shared" si="12"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="M68" s="62">
-        <f>55.3*volume*(1/(c_sound*M45) - 1/(c_sound*G20))</f>
+      <c r="M68" s="61">
+        <f t="shared" si="13"/>
         <v>11.265604588702121</v>
       </c>
-      <c r="N68" s="62">
-        <f>M68/surf</f>
+      <c r="N68" s="61">
+        <f t="shared" si="14"/>
         <v>0.93880038239184349</v>
       </c>
-      <c r="O68" s="39"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="63">
+      <c r="O68" s="38"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="62">
         <v>3150</v>
       </c>
-      <c r="G69" s="62">
-        <f>55.3*volume*(1/(c_sound*G46) - 1/(c_sound*G21))</f>
+      <c r="G69" s="61">
+        <f t="shared" si="7"/>
         <v>5.6110441409650553</v>
       </c>
-      <c r="H69" s="62">
-        <f>G69/surf</f>
+      <c r="H69" s="61">
+        <f t="shared" si="8"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="I69" s="62">
-        <f>55.3*volume*(1/(c_sound*I46) - 1/(c_sound*G21))</f>
+      <c r="I69" s="61">
+        <f t="shared" si="9"/>
         <v>8.71623813296927</v>
       </c>
-      <c r="J69" s="62">
-        <f>I69/surf</f>
+      <c r="J69" s="61">
+        <f t="shared" si="10"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="K69" s="62">
-        <f>55.3*volume*(1/(c_sound*K46) - 1/(c_sound*G21))</f>
+      <c r="K69" s="61">
+        <f t="shared" si="11"/>
         <v>8.0105122256955852</v>
       </c>
-      <c r="L69" s="62">
-        <f>K69/surf</f>
+      <c r="L69" s="61">
+        <f t="shared" si="12"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="M69" s="62">
-        <f>55.3*volume*(1/(c_sound*M46) - 1/(c_sound*G21))</f>
+      <c r="M69" s="61">
+        <f t="shared" si="13"/>
         <v>11.265604588702121</v>
       </c>
-      <c r="N69" s="62">
-        <f>M69/surf</f>
+      <c r="N69" s="61">
+        <f t="shared" si="14"/>
         <v>0.93880038239184349</v>
       </c>
-      <c r="O69" s="39"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="63">
+      <c r="O69" s="38"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="62">
         <v>4000</v>
       </c>
-      <c r="G70" s="62">
-        <f>55.3*volume*(1/(c_sound*G47) - 1/(c_sound*G22))</f>
+      <c r="G70" s="61">
+        <f t="shared" si="7"/>
         <v>5.6110441409650553</v>
       </c>
-      <c r="H70" s="62">
-        <f>G70/surf</f>
+      <c r="H70" s="61">
+        <f t="shared" si="8"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="I70" s="62">
-        <f>55.3*volume*(1/(c_sound*I47) - 1/(c_sound*G22))</f>
+      <c r="I70" s="61">
+        <f t="shared" si="9"/>
         <v>8.71623813296927</v>
       </c>
-      <c r="J70" s="62">
-        <f>I70/surf</f>
+      <c r="J70" s="61">
+        <f t="shared" si="10"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="K70" s="62">
-        <f>55.3*volume*(1/(c_sound*K47) - 1/(c_sound*G22))</f>
+      <c r="K70" s="61">
+        <f t="shared" si="11"/>
         <v>8.0105122256955852</v>
       </c>
-      <c r="L70" s="62">
-        <f>K70/surf</f>
+      <c r="L70" s="61">
+        <f t="shared" si="12"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="M70" s="62">
-        <f>55.3*volume*(1/(c_sound*M47) - 1/(c_sound*G22))</f>
+      <c r="M70" s="61">
+        <f t="shared" si="13"/>
         <v>11.265604588702121</v>
       </c>
-      <c r="N70" s="62">
-        <f>M70/surf</f>
+      <c r="N70" s="61">
+        <f t="shared" si="14"/>
         <v>0.93880038239184349</v>
       </c>
-      <c r="O70" s="39"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="63">
+      <c r="O70" s="38"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="62">
         <v>5000</v>
       </c>
-      <c r="G71" s="62">
-        <f>55.3*volume*(1/(c_sound*G48) - 1/(c_sound*G23))</f>
+      <c r="G71" s="61">
+        <f t="shared" si="7"/>
         <v>5.6110441409650553</v>
       </c>
-      <c r="H71" s="62">
-        <f>G71/surf</f>
+      <c r="H71" s="61">
+        <f t="shared" si="8"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="I71" s="62">
-        <f>55.3*volume*(1/(c_sound*I48) - 1/(c_sound*G23))</f>
+      <c r="I71" s="61">
+        <f t="shared" si="9"/>
         <v>8.71623813296927</v>
       </c>
-      <c r="J71" s="62">
-        <f>I71/surf</f>
+      <c r="J71" s="61">
+        <f t="shared" si="10"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="K71" s="62">
-        <f>55.3*volume*(1/(c_sound*K48) - 1/(c_sound*G23))</f>
+      <c r="K71" s="61">
+        <f t="shared" si="11"/>
         <v>8.0105122256955852</v>
       </c>
-      <c r="L71" s="62">
-        <f>K71/surf</f>
+      <c r="L71" s="61">
+        <f t="shared" si="12"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="M71" s="62">
-        <f>55.3*volume*(1/(c_sound*M48) - 1/(c_sound*G23))</f>
+      <c r="M71" s="61">
+        <f t="shared" si="13"/>
         <v>11.265604588702121</v>
       </c>
-      <c r="N71" s="62">
-        <f>M71/surf</f>
+      <c r="N71" s="61">
+        <f t="shared" si="14"/>
         <v>0.93880038239184349</v>
       </c>
-      <c r="O71" s="39"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
+      <c r="O71" s="38"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
@@ -6043,74 +6138,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6121,26 +6148,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" activeCellId="2" sqref="I10 J10 K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="117" t="s">
+      <c r="K3" s="115" t="s">
         <v>61</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -6150,77 +6177,77 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="M4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="83" t="s">
+    <row r="5" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:19" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B6" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="R6" s="15" t="s">
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
+      <c r="R6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
+    <row r="7" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="116">
+      <c r="J7" s="118">
         <f>J45</f>
         <v>0.5</v>
       </c>
-      <c r="K7" s="114" t="s">
+      <c r="K7" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -6228,44 +6255,44 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>125</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="92">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="91">
         <v>100</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="90">
         <f>RT!H54</f>
         <v>0.56589055310284808</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="90">
         <f>RT!J54</f>
         <v>0.78325413254314313</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="90">
         <f>RT!L54</f>
         <v>0.73385331903398487</v>
       </c>
-      <c r="F8" s="93">
+      <c r="F8" s="92">
         <f>RT!N54</f>
         <v>0.96170978444444222</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="116">
+      <c r="J8" s="121">
         <f>K45</f>
         <v>0.75</v>
       </c>
-      <c r="K8" s="114" t="s">
+      <c r="K8" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -6273,44 +6300,44 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="5"/>
-      <c r="R8" s="17">
+      <c r="R8" s="16">
         <v>250</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="18">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="32">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="31">
         <v>125</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="90">
         <f>RT!H55</f>
         <v>0.56589055310284808</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="90">
         <f>RT!J55</f>
         <v>0.78325413254314313</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="90">
         <f>RT!L55</f>
         <v>0.73385331903398487</v>
       </c>
-      <c r="F9" s="93">
+      <c r="F9" s="92">
         <f>RT!N55</f>
         <v>0.96170978444444222</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="116">
+      <c r="J9" s="121">
         <f>L45</f>
         <v>0.7</v>
       </c>
-      <c r="K9" s="114" t="s">
+      <c r="K9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -6318,1171 +6345,1171 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
-      <c r="R9" s="17">
+      <c r="R9" s="16">
         <v>500</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32">
+    <row r="10" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31">
         <v>160</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="90">
         <f>RT!H56</f>
         <v>0.56589055310284808</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="90">
         <f>RT!J56</f>
         <v>0.78325413254314313</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="90">
         <f>RT!L56</f>
         <v>0.73385331903398487</v>
       </c>
-      <c r="F10" s="93">
+      <c r="F10" s="92">
         <f>RT!N56</f>
         <v>0.96170978444444222</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="115">
+      <c r="J10" s="124">
         <f>M45</f>
         <v>0.95</v>
       </c>
-      <c r="K10" s="114" t="s">
+      <c r="K10" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
-      <c r="R10" s="17">
+      <c r="O10" s="13"/>
+      <c r="P10" s="6"/>
+      <c r="R10" s="16">
         <v>1000</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="32">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="31">
         <v>200</v>
       </c>
-      <c r="C11" s="91">
+      <c r="C11" s="90">
         <f>RT!H57</f>
         <v>0.56589055310284808</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="90">
         <f>RT!J57</f>
         <v>0.78325413254314313</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="90">
         <f>RT!L57</f>
         <v>0.73385331903398487</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="92">
         <f>RT!N57</f>
         <v>0.96170978444444222</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="16">
         <v>2000</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32">
+    <row r="12" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31">
         <v>250</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="90">
         <f>RT!H58</f>
         <v>0.56589055310284808</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="90">
         <f>RT!J58</f>
         <v>0.78325413254314313</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="90">
         <f>RT!L58</f>
         <v>0.73385331903398487</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="92">
         <f>RT!N58</f>
         <v>0.96170978444444222</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="17">
         <v>4000</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="19">
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="32">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="31">
         <v>315</v>
       </c>
-      <c r="C13" s="91">
+      <c r="C13" s="90">
         <f>RT!H59</f>
         <v>0.4327232736910836</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="90">
         <f>RT!J59</f>
         <v>0.65008685313137871</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="90">
         <f>RT!L59</f>
         <v>0.60068603962222056</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="92">
         <f>RT!N59</f>
         <v>0.8285425050326779</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="32">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="31">
         <v>400</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="90">
         <f>RT!H60</f>
         <v>0.52070377013120273</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="90">
         <f>RT!J60</f>
         <v>0.75359331953151887</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="90">
         <f>RT!L60</f>
         <v>0.70066387648599238</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="92">
         <f>RT!N60</f>
         <v>0.94479580371148264</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="32">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="31">
         <v>500</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="90">
         <f>RT!H61</f>
         <v>0.52070377013120273</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="90">
         <f>RT!J61</f>
         <v>0.75359331953151887</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="90">
         <f>RT!L61</f>
         <v>0.70066387648599238</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="92">
         <f>RT!N61</f>
         <v>0.94479580371148264</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="32">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="31">
         <v>630</v>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="90">
         <f>RT!H62</f>
         <v>0.52070377013120273</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="90">
         <f>RT!J62</f>
         <v>0.75359331953151887</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="90">
         <f>RT!L62</f>
         <v>0.70066387648599238</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="92">
         <f>RT!N62</f>
         <v>0.94479580371148264</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="32">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="31">
         <v>800</v>
       </c>
-      <c r="C17" s="91">
+      <c r="C17" s="90">
         <f>RT!H63</f>
         <v>0.52070377013120273</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="90">
         <f>RT!J63</f>
         <v>0.75359331953151887</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="90">
         <f>RT!L63</f>
         <v>0.70066387648599238</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="92">
         <f>RT!N63</f>
         <v>0.94479580371148264</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="33">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="32">
         <v>1000</v>
       </c>
-      <c r="C18" s="91">
+      <c r="C18" s="90">
         <f>RT!H64</f>
         <v>0.43192558385669266</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="90">
         <f>RT!J64</f>
         <v>0.66481513325700881</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="90">
         <f>RT!L64</f>
         <v>0.61188569021148231</v>
       </c>
-      <c r="F18" s="93">
+      <c r="F18" s="92">
         <f>RT!N64</f>
         <v>0.85601761743697258</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="33">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="32">
         <v>1250</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="90">
         <f>RT!H65</f>
         <v>0.43192558385669266</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="90">
         <f>RT!J65</f>
         <v>0.66481513325700881</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="90">
         <f>RT!L65</f>
         <v>0.61188569021148231</v>
       </c>
-      <c r="F19" s="93">
+      <c r="F19" s="92">
         <f>RT!N65</f>
         <v>0.85601761743697258</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="33">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="32">
         <v>1600</v>
       </c>
-      <c r="C20" s="91">
+      <c r="C20" s="90">
         <f>RT!H66</f>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D20" s="91">
+      <c r="D20" s="90">
         <f>RT!J66</f>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E20" s="91">
+      <c r="E20" s="90">
         <f>RT!L66</f>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="92">
         <f>RT!N66</f>
         <v>0.93880038239184349</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="33">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="32">
         <v>2000</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C21" s="90">
         <f>RT!H67</f>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D21" s="91">
+      <c r="D21" s="90">
         <f>RT!J67</f>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="90">
         <f>RT!L67</f>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F21" s="93">
+      <c r="F21" s="92">
         <f>RT!N67</f>
         <v>0.93880038239184349</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="33">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="32">
         <v>2500</v>
       </c>
-      <c r="C22" s="91">
+      <c r="C22" s="90">
         <f>RT!H68</f>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D22" s="91">
+      <c r="D22" s="90">
         <f>RT!J68</f>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E22" s="91">
+      <c r="E22" s="90">
         <f>RT!L68</f>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="92">
         <f>RT!N68</f>
         <v>0.93880038239184349</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="33">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="32">
         <v>3150</v>
       </c>
-      <c r="C23" s="91">
+      <c r="C23" s="90">
         <f>RT!H69</f>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D23" s="91">
+      <c r="D23" s="90">
         <f>RT!J69</f>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="90">
         <f>RT!L69</f>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F23" s="93">
+      <c r="F23" s="92">
         <f>RT!N69</f>
         <v>0.93880038239184349</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="33">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="32">
         <v>4000</v>
       </c>
-      <c r="C24" s="91">
+      <c r="C24" s="90">
         <f>RT!H70</f>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D24" s="91">
+      <c r="D24" s="90">
         <f>RT!J70</f>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E24" s="91">
+      <c r="E24" s="90">
         <f>RT!L70</f>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F24" s="93">
+      <c r="F24" s="92">
         <f>RT!N70</f>
         <v>0.93880038239184349</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
+    <row r="25" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="33">
         <v>5000</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="90">
         <f>RT!H71</f>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="90">
         <f>RT!J71</f>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="90">
         <f>RT!L71</f>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F25" s="93">
+      <c r="F25" s="92">
         <f>RT!N71</f>
         <v>0.93880038239184349</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="29"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-    </row>
-    <row r="27" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="83" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="L28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="84" t="s">
+    <row r="29" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="86" t="s">
+      <c r="F29" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>125</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J29" s="55">
         <f>C31</f>
         <v>0.56589055310284808</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K29" s="55">
         <f>D31</f>
         <v>0.78325413254314313</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L29" s="55">
         <f t="shared" ref="L29:M29" si="0">E31</f>
         <v>0.73385331903398487</v>
       </c>
-      <c r="M29" s="56">
+      <c r="M29" s="55">
         <f t="shared" si="0"/>
         <v>0.96170978444444222</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="87">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="86">
         <v>100</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="11"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="10"/>
       <c r="I30" s="2">
         <v>250</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="51">
         <f>C34</f>
         <v>0.52150145996559327</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="51">
         <f t="shared" ref="K30:M30" si="1">D34</f>
         <v>0.73886503940588832</v>
       </c>
-      <c r="L30" s="52">
+      <c r="L30" s="51">
         <f t="shared" si="1"/>
         <v>0.68946422589673018</v>
       </c>
-      <c r="M30" s="52">
+      <c r="M30" s="51">
         <f t="shared" si="1"/>
         <v>0.91732069130718752</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="32">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="31">
         <v>125</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <f>(C8+C9+C10)/3</f>
         <v>0.56589055310284808</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="30">
         <f>(D8+D9+D10)/3</f>
         <v>0.78325413254314313</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="30">
         <f t="shared" ref="E31:F31" si="2">(E8+E9+E10)/3</f>
         <v>0.73385331903398487</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="30">
         <f t="shared" si="2"/>
         <v>0.96170978444444222</v>
       </c>
       <c r="I31" s="2">
         <v>500</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="51">
         <f>C37</f>
         <v>0.52070377013120273</v>
       </c>
-      <c r="K31" s="52">
+      <c r="K31" s="51">
         <f t="shared" ref="K31:L31" si="3">D37</f>
         <v>0.75359331953151887</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="51">
         <f t="shared" si="3"/>
         <v>0.70066387648599238</v>
       </c>
-      <c r="M31" s="52">
+      <c r="M31" s="51">
         <f>F37</f>
         <v>0.94479580371148264</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="32">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="31">
         <v>160</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <f t="shared" ref="C32:F46" si="4">(C9+C10+C11)/3</f>
         <v>0.56589055310284808</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="30">
         <f t="shared" si="4"/>
         <v>0.78325413254314313</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="30">
         <f t="shared" si="4"/>
         <v>0.73385331903398487</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="30">
         <f t="shared" si="4"/>
         <v>0.96170978444444222</v>
       </c>
       <c r="I32" s="2">
         <v>1000</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="51">
         <f>C40</f>
         <v>0.4615183126148627</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="51">
         <f t="shared" ref="K32:M32" si="5">D40</f>
         <v>0.69440786201517879</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="51">
         <f t="shared" si="5"/>
         <v>0.64147841896965241</v>
       </c>
-      <c r="M32" s="52">
+      <c r="M32" s="51">
         <f t="shared" si="5"/>
         <v>0.88561034619514256</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="32">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="31">
         <v>200</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <f t="shared" si="4"/>
         <v>0.56589055310284808</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <f t="shared" si="4"/>
         <v>0.78325413254314313</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="30">
         <f t="shared" si="4"/>
         <v>0.73385331903398487</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="30">
         <f t="shared" si="4"/>
         <v>0.96170978444444222</v>
       </c>
       <c r="I33" s="2">
         <v>2000</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="51">
         <f>C43</f>
         <v>0.46758701174708794</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="51">
         <f t="shared" ref="K33:M33" si="6">D43</f>
         <v>0.72635317774743913</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="51">
         <f t="shared" si="6"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="M33" s="52">
+      <c r="M33" s="51">
         <f t="shared" si="6"/>
         <v>0.93880038239184349</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="32">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="31">
         <v>250</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="30">
         <f t="shared" si="4"/>
         <v>0.52150145996559327</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="30">
         <f t="shared" si="4"/>
         <v>0.73886503940588832</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <f t="shared" si="4"/>
         <v>0.68946422589673018</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="30">
         <f t="shared" si="4"/>
         <v>0.91732069130718752</v>
       </c>
       <c r="I34" s="2">
         <v>4000</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="52">
         <f>C46</f>
         <v>0.46758701174708794</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="52">
         <f t="shared" ref="K34:M34" si="7">D46</f>
         <v>0.72635317774743913</v>
       </c>
-      <c r="L34" s="53">
+      <c r="L34" s="52">
         <f>E46</f>
         <v>0.66754268547463214</v>
       </c>
-      <c r="M34" s="53">
+      <c r="M34" s="52">
         <f t="shared" si="7"/>
         <v>0.93880038239184349</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="32">
+    <row r="35" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="31">
         <v>315</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <f t="shared" si="4"/>
         <v>0.50643919897504486</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="30">
         <f t="shared" si="4"/>
         <v>0.72897810173534694</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="30">
         <f t="shared" si="4"/>
         <v>0.6784010783807326</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="30">
         <f t="shared" si="4"/>
         <v>0.91168269772953436</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="32">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="31">
         <v>400</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <f t="shared" si="4"/>
         <v>0.49137693798449633</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="30">
         <f t="shared" si="4"/>
         <v>0.71909116406480544</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="30">
         <f t="shared" si="4"/>
         <v>0.66733793086473503</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <f t="shared" si="4"/>
         <v>0.90604470415188099</v>
       </c>
-      <c r="J36" s="103" t="s">
+      <c r="J36" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="26"/>
-    </row>
-    <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="32">
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="25"/>
+    </row>
+    <row r="37" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="31">
         <v>500</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <f t="shared" si="4"/>
         <v>0.52070377013120273</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="30">
         <f t="shared" si="4"/>
         <v>0.75359331953151887</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="30">
         <f t="shared" si="4"/>
         <v>0.70066387648599238</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="30">
         <f t="shared" si="4"/>
         <v>0.94479580371148264</v>
       </c>
-      <c r="J37" s="105">
+      <c r="J37" s="104">
         <v>0.5</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>0.25</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="13">
         <v>0.3</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="32">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="31">
         <v>630</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <f t="shared" si="4"/>
         <v>0.52070377013120273</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="30">
         <f t="shared" si="4"/>
         <v>0.75359331953151887</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="30">
         <f t="shared" si="4"/>
         <v>0.70066387648599238</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="30">
         <f t="shared" si="4"/>
         <v>0.94479580371148264</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="32">
+    <row r="39" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="31">
         <v>800</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <f t="shared" si="4"/>
         <v>0.49111104137303269</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="30">
         <f t="shared" si="4"/>
         <v>0.72400059077334877</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="30">
         <f t="shared" si="4"/>
         <v>0.67107114772782239</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="30">
         <f>(F16+F17+F18)/3</f>
         <v>0.91520307495331255</v>
       </c>
-      <c r="J39" s="97"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-    </row>
-    <row r="40" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="33">
+      <c r="J39" s="96"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+    </row>
+    <row r="40" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="32">
         <v>1000</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <f t="shared" si="4"/>
         <v>0.4615183126148627</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="30">
         <f t="shared" si="4"/>
         <v>0.69440786201517879</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="30">
         <f t="shared" si="4"/>
         <v>0.64147841896965241</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="30">
         <f t="shared" si="4"/>
         <v>0.88561034619514256</v>
       </c>
       <c r="I40" s="3">
         <v>250</v>
       </c>
-      <c r="J40" s="98">
+      <c r="J40" s="97">
         <f>S8-s_1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K40" s="98">
+      <c r="K40" s="97">
         <f>S8-s_2</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="L40" s="98">
+      <c r="L40" s="97">
         <f>S8-s_3</f>
         <v>0.5</v>
       </c>
-      <c r="M40" s="99">
+      <c r="M40" s="98">
         <f>S8-s_4</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33">
+    <row r="41" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="32">
         <v>1250</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <f t="shared" si="4"/>
         <v>0.4438127264868244</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="30">
         <f t="shared" si="4"/>
         <v>0.68532781475381899</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="30">
         <f t="shared" si="4"/>
         <v>0.63043802196586551</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="30">
         <f t="shared" si="4"/>
         <v>0.88361187242192951</v>
       </c>
       <c r="I41" s="4">
         <v>500</v>
       </c>
-      <c r="J41" s="118">
+      <c r="J41" s="108">
         <f>S9-s_1</f>
         <v>0.5</v>
       </c>
-      <c r="K41" s="118">
+      <c r="K41" s="108">
         <f>S9-s_2</f>
         <v>0.75</v>
       </c>
-      <c r="L41" s="118">
+      <c r="L41" s="108">
         <f>S9-s_3</f>
         <v>0.7</v>
       </c>
-      <c r="M41" s="119">
+      <c r="M41" s="109">
         <f>S9-s_4</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="33">
+    <row r="42" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="32">
         <v>1600</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="30">
         <f t="shared" si="4"/>
         <v>0.4556998691169562</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="30">
         <f t="shared" si="4"/>
         <v>0.70584049625062895</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="30">
         <f t="shared" si="4"/>
         <v>0.64899035372024894</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="30">
         <f t="shared" si="4"/>
         <v>0.91120612740688645</v>
       </c>
       <c r="I42" s="4">
         <v>1000</v>
       </c>
-      <c r="J42" s="118">
+      <c r="J42" s="108">
         <f>S10-s_1</f>
         <v>0.5</v>
       </c>
-      <c r="K42" s="118">
+      <c r="K42" s="108">
         <f>S10-s_2</f>
         <v>0.75</v>
       </c>
-      <c r="L42" s="118">
+      <c r="L42" s="108">
         <f>S10-s_3</f>
         <v>0.7</v>
       </c>
-      <c r="M42" s="119">
+      <c r="M42" s="109">
         <f>S10-s_4</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="33">
+    <row r="43" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="32">
         <v>2000</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <f t="shared" si="4"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="30">
         <f t="shared" si="4"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="30">
         <f t="shared" si="4"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="30">
         <f t="shared" si="4"/>
         <v>0.93880038239184349</v>
       </c>
       <c r="I43" s="4">
         <v>2000</v>
       </c>
-      <c r="J43" s="118">
+      <c r="J43" s="108">
         <f>S11-s_1</f>
         <v>0.5</v>
       </c>
-      <c r="K43" s="118">
+      <c r="K43" s="108">
         <f>S11-s_2</f>
         <v>0.75</v>
       </c>
-      <c r="L43" s="118">
+      <c r="L43" s="108">
         <f>S11-s_3</f>
         <v>0.7</v>
       </c>
-      <c r="M43" s="119">
+      <c r="M43" s="109">
         <f>S11-s_4</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="33">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="32">
         <v>2500</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="30">
         <f t="shared" si="4"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="30">
         <f t="shared" si="4"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="30">
         <f t="shared" si="4"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="30">
         <f t="shared" si="4"/>
         <v>0.93880038239184349</v>
       </c>
       <c r="I44" s="4">
         <v>4000</v>
       </c>
-      <c r="J44" s="118">
+      <c r="J44" s="108">
         <f>S12-s_1</f>
         <v>0.4</v>
       </c>
-      <c r="K44" s="118">
+      <c r="K44" s="108">
         <f>S12-s_2</f>
         <v>0.65</v>
       </c>
-      <c r="L44" s="118">
+      <c r="L44" s="108">
         <f>S12-s_3</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="M44" s="119">
+      <c r="M44" s="109">
         <f>S12-s_4</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="33">
+    <row r="45" spans="2:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="32">
         <v>3150</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="30">
         <f t="shared" si="4"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="30">
         <f t="shared" si="4"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="30">
         <f t="shared" si="4"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="30">
         <f t="shared" si="4"/>
         <v>0.93880038239184349</v>
       </c>
-      <c r="I45" s="102" t="s">
+      <c r="I45" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="J45" s="100">
+      <c r="J45" s="99">
         <f>J41</f>
         <v>0.5</v>
       </c>
-      <c r="K45" s="100">
+      <c r="K45" s="99">
         <f t="shared" ref="K45:M45" si="8">K41</f>
         <v>0.75</v>
       </c>
-      <c r="L45" s="100">
+      <c r="L45" s="99">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
-      <c r="M45" s="101">
+      <c r="M45" s="100">
         <f t="shared" si="8"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="33">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="32">
         <v>4000</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="30">
         <f t="shared" si="4"/>
         <v>0.46758701174708794</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="30">
         <f t="shared" si="4"/>
         <v>0.72635317774743913</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="30">
         <f t="shared" si="4"/>
         <v>0.66754268547463214</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="30">
         <f t="shared" si="4"/>
         <v>0.93880038239184349</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="34">
+    <row r="47" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="33">
         <v>5000</v>
       </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="35"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="30"/>
-    </row>
-    <row r="48" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="34"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I48" s="3">
         <v>250</v>
       </c>
-      <c r="J48" s="118">
+      <c r="J48" s="108">
         <f>MAX(0,J40-J30)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="118">
+      <c r="K48" s="108">
         <f t="shared" ref="K48:M48" si="9">MAX(0,K40-K30)</f>
         <v>0</v>
       </c>
-      <c r="L48" s="118">
+      <c r="L48" s="108">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M48" s="118">
+      <c r="M48" s="108">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I49" s="4">
         <v>500</v>
       </c>
-      <c r="J49" s="118">
+      <c r="J49" s="108">
         <f t="shared" ref="J49:M52" si="10">MAX(0,J41-J31)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="118">
+      <c r="K49" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L49" s="118">
+      <c r="L49" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M49" s="118">
+      <c r="M49" s="108">
         <f t="shared" si="10"/>
         <v>5.2041962885173154E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="96"/>
+    <row r="50" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="95"/>
       <c r="I50" s="4">
         <v>1000</v>
       </c>
-      <c r="J50" s="118">
+      <c r="J50" s="108">
         <f t="shared" si="10"/>
         <v>3.8481687385137298E-2</v>
       </c>
-      <c r="K50" s="118">
+      <c r="K50" s="108">
         <f t="shared" si="10"/>
         <v>5.559213798482121E-2</v>
       </c>
-      <c r="L50" s="118">
+      <c r="L50" s="108">
         <f t="shared" si="10"/>
         <v>5.8521581030347547E-2</v>
       </c>
-      <c r="M50" s="118">
+      <c r="M50" s="108">
         <f t="shared" si="10"/>
         <v>6.4389653804857394E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I51" s="4">
         <v>2000</v>
       </c>
-      <c r="J51" s="118">
+      <c r="J51" s="108">
         <f t="shared" si="10"/>
         <v>3.2412988252912056E-2</v>
       </c>
-      <c r="K51" s="118">
+      <c r="K51" s="108">
         <f t="shared" si="10"/>
         <v>2.3646822252560873E-2</v>
       </c>
-      <c r="L51" s="118">
+      <c r="L51" s="108">
         <f t="shared" si="10"/>
         <v>3.245731452536782E-2</v>
       </c>
-      <c r="M51" s="118">
+      <c r="M51" s="108">
         <f t="shared" si="10"/>
         <v>1.1199617608156465E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I52" s="4">
         <v>4000</v>
       </c>
-      <c r="J52" s="118">
+      <c r="J52" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K52" s="118">
+      <c r="K52" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L52" s="118">
+      <c r="L52" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M52" s="118">
+      <c r="M52" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I53" s="106" t="s">
+    <row r="53" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="107">
+      <c r="J53" s="106">
         <f>SUM(J47:J52)</f>
         <v>7.0894675638049354E-2</v>
       </c>
-      <c r="K53" s="107">
+      <c r="K53" s="106">
         <f t="shared" ref="K53:M53" si="11">SUM(K47:K52)</f>
         <v>7.9238960237382083E-2</v>
       </c>
-      <c r="L53" s="107">
+      <c r="L53" s="106">
         <f t="shared" si="11"/>
         <v>9.0978895555715367E-2</v>
       </c>
-      <c r="M53" s="108">
+      <c r="M53" s="107">
         <f t="shared" si="11"/>
         <v>8.0793467701531174E-2</v>
       </c>
@@ -7497,42 +7524,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>